--- a/TaskgraphsEdgeDetect/hwsw-partitioning/TaskGraph-Attributes.xlsx
+++ b/TaskgraphsEdgeDetect/hwsw-partitioning/TaskGraph-Attributes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago\Dev\Experiments\TaskgraphsEdgeDetect\hwsw-partitioning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B053115D-94D1-4CA0-B6A5-28461E6514E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD33E6F0-8CD8-4DBF-8FDB-74976E8DD6C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="47">
   <si>
     <t>latency</t>
   </si>
@@ -69,12 +69,6 @@
     <t>set_filter_smooth</t>
   </si>
   <si>
-    <t>set_filter_vert</t>
-  </si>
-  <si>
-    <t>set_filter_horiz</t>
-  </si>
-  <si>
     <t>edge_detect</t>
   </si>
   <si>
@@ -148,6 +142,42 @@
   </si>
   <si>
     <t>b-roundtrip</t>
+  </si>
+  <si>
+    <t>set_filter_vertical</t>
+  </si>
+  <si>
+    <t>set_filter_horizontal</t>
+  </si>
+  <si>
+    <t>Communication Model</t>
+  </si>
+  <si>
+    <t>Oneway</t>
+  </si>
+  <si>
+    <t>Roundtrip</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>main_begin</t>
+  </si>
+  <si>
+    <t>main_end</t>
+  </si>
+  <si>
+    <t>convolve2d (1)</t>
+  </si>
+  <si>
+    <t>convolve2d (2)</t>
+  </si>
+  <si>
+    <t>convolve2d (3)</t>
   </si>
 </sst>
 </file>
@@ -171,7 +201,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,8 +232,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -328,32 +370,79 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -366,60 +455,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -431,6 +472,97 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,6 +578,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>582038</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12203B0A-7E43-5740-98BC-8D83736B9CA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11725275" y="76200"/>
+          <a:ext cx="4039613" cy="6572250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -711,65 +898,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:B23"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="16.140625" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>13</v>
+      <c r="A1" s="35" t="s">
+        <v>11</v>
       </c>
       <c r="B1" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="34"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="36"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="42"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="46" t="s">
+      <c r="E2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="I2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="47" t="s">
+      <c r="J2" s="26" t="s">
         <v>5</v>
       </c>
     </row>
@@ -780,250 +970,255 @@
       <c r="B3" s="2">
         <v>143601</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="11">
         <f>$D3 * 1000000</f>
-        <v>2871.0717499999996</v>
+        <v>2871.1593500000004</v>
       </c>
       <c r="D3" s="2">
-        <v>2.8710717499999998E-3</v>
+        <v>2.8711593500000002E-3</v>
       </c>
       <c r="E3" s="2">
-        <v>786595</v>
+        <v>786619</v>
       </c>
       <c r="F3" s="2">
         <v>273.97260273972603</v>
       </c>
-      <c r="G3" s="18">
-        <v>4.7964082503556098E-3</v>
-      </c>
-      <c r="H3" s="18">
-        <v>2.1053742887624401E-2</v>
-      </c>
-      <c r="I3" s="18">
-        <v>0</v>
-      </c>
-      <c r="J3" s="19">
-        <v>3.0487804878048699E-3</v>
+      <c r="G3" s="14">
+        <v>1.3271672504378201E-2</v>
+      </c>
+      <c r="H3" s="14">
+        <v>5.0492556917688197E-2</v>
+      </c>
+      <c r="I3" s="14">
+        <v>0</v>
+      </c>
+      <c r="J3" s="15">
+        <v>5.5555555555555497E-3</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="41">
         <v>14467</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="42">
         <f t="shared" ref="C4:C9" si="0">$D4 * 1000000</f>
-        <v>8545.9968499999995</v>
-      </c>
-      <c r="D4" s="5">
-        <v>8.5459968499999994E-3</v>
-      </c>
-      <c r="E4" s="5">
-        <v>2341369</v>
-      </c>
-      <c r="F4" s="5">
+        <v>8546.0698500000017</v>
+      </c>
+      <c r="D4" s="41">
+        <v>8.5460698500000008E-3</v>
+      </c>
+      <c r="E4" s="41">
+        <v>2341389</v>
+      </c>
+      <c r="F4" s="41">
         <v>273.97260273972603</v>
       </c>
-      <c r="G4" s="20">
-        <v>8.7187722261735396E-3</v>
-      </c>
-      <c r="H4" s="20">
-        <v>6.4309210526315705E-2</v>
-      </c>
-      <c r="I4" s="20">
-        <v>0</v>
-      </c>
-      <c r="J4" s="21">
-        <v>0</v>
+      <c r="G4" s="43">
+        <v>2.6514156450671299E-2</v>
+      </c>
+      <c r="H4" s="43">
+        <v>0.133413601868067</v>
+      </c>
+      <c r="I4" s="43">
+        <v>0</v>
+      </c>
+      <c r="J4" s="16">
+        <v>1.0714285714285701E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="41">
         <v>245034</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="42">
         <f t="shared" si="0"/>
         <v>1914.1877500000001</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="41">
         <v>1.91418775E-3</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="41">
         <v>524435</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="41">
         <v>273.97260273972603</v>
       </c>
-      <c r="G5" s="20">
-        <v>2.5332281294452301E-2</v>
-      </c>
-      <c r="H5" s="20">
-        <v>1.2074368776671399E-2</v>
-      </c>
-      <c r="I5" s="20">
-        <v>0</v>
-      </c>
-      <c r="J5" s="21">
+      <c r="G5" s="43">
+        <v>7.8309252772912993E-2</v>
+      </c>
+      <c r="H5" s="43">
+        <v>2.1555750145942701E-2</v>
+      </c>
+      <c r="I5" s="43">
+        <v>0</v>
+      </c>
+      <c r="J5" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5">
-        <v>0</v>
-      </c>
-      <c r="C6" s="16">
+      <c r="B6" s="41">
+        <v>0</v>
+      </c>
+      <c r="C6" s="42">
         <f t="shared" si="0"/>
         <v>0.2555</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="44">
         <v>2.5549999999999998E-7</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="41">
         <v>70</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="41">
         <v>273.97260273972603</v>
       </c>
-      <c r="G6" s="20">
-        <v>2.66936344238975E-3</v>
-      </c>
-      <c r="H6" s="20">
-        <v>9.2605352062588905E-3</v>
-      </c>
-      <c r="I6" s="20">
-        <v>0</v>
-      </c>
-      <c r="J6" s="21">
+      <c r="G6" s="43">
+        <v>3.3785755983654401E-3</v>
+      </c>
+      <c r="H6" s="43">
+        <v>1.0402072387624001E-2</v>
+      </c>
+      <c r="I6" s="43">
+        <v>0</v>
+      </c>
+      <c r="J6" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="5">
-        <v>0</v>
-      </c>
-      <c r="C7" s="16">
+      <c r="A7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="41">
+        <v>0</v>
+      </c>
+      <c r="C7" s="42">
         <f t="shared" si="0"/>
         <v>0.2555</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="44">
         <v>2.5549999999999998E-7</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="41">
         <v>70</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="41">
         <v>273.97260273972603</v>
       </c>
-      <c r="G7" s="20">
-        <v>2.66936344238975E-3</v>
-      </c>
-      <c r="H7" s="20">
-        <v>9.2605352062588905E-3</v>
-      </c>
-      <c r="I7" s="20">
-        <v>0</v>
-      </c>
-      <c r="J7" s="21">
+      <c r="G7" s="43">
+        <v>3.3785755983654401E-3</v>
+      </c>
+      <c r="H7" s="43">
+        <v>1.0402072387624001E-2</v>
+      </c>
+      <c r="I7" s="43">
+        <v>0</v>
+      </c>
+      <c r="J7" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="9">
-        <v>0</v>
-      </c>
-      <c r="C8" s="16">
+      <c r="A8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0</v>
+      </c>
+      <c r="C8" s="22">
         <f t="shared" si="0"/>
         <v>0.2555</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="7">
         <v>2.5549999999999998E-7</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="6">
         <v>70</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="6">
         <v>273.97260273972603</v>
       </c>
-      <c r="G8" s="22">
-        <v>2.66936344238975E-3</v>
-      </c>
-      <c r="H8" s="22">
-        <v>9.2605352062588905E-3</v>
-      </c>
-      <c r="I8" s="22">
-        <v>0</v>
-      </c>
-      <c r="J8" s="23">
+      <c r="G8" s="17">
+        <v>3.3785755983654401E-3</v>
+      </c>
+      <c r="H8" s="17">
+        <v>1.0402072387624001E-2</v>
+      </c>
+      <c r="I8" s="17">
+        <v>0</v>
+      </c>
+      <c r="J8" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="10">
+        <v>435372</v>
+      </c>
+      <c r="C9" s="13">
+        <f t="shared" si="0"/>
+        <v>534535.19634999998</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.53453519635000002</v>
+      </c>
+      <c r="E9" s="10">
+        <v>146447999</v>
+      </c>
+      <c r="F9" s="10">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G9" s="45">
+        <v>0.11206217162872099</v>
+      </c>
+      <c r="H9" s="45">
+        <v>0.19555239346176201</v>
+      </c>
+      <c r="I9" s="45">
+        <v>0</v>
+      </c>
+      <c r="J9" s="46">
+        <v>1.6269841269841202E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="13">
-        <v>435372</v>
-      </c>
-      <c r="C9" s="17">
-        <f t="shared" si="0"/>
-        <v>480421.30374999996</v>
-      </c>
-      <c r="D9" s="13">
-        <v>0.48042130374999997</v>
-      </c>
-      <c r="E9" s="13">
-        <v>131622275</v>
-      </c>
-      <c r="F9" s="13">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="G9" s="13">
-        <v>3.3881023293029798E-2</v>
-      </c>
-      <c r="H9" s="13">
-        <v>8.0566545163584594E-2</v>
-      </c>
-      <c r="I9" s="13">
-        <v>0</v>
-      </c>
-      <c r="J9" s="14">
-        <v>3.0487804878048699E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>32</v>
-      </c>
+      <c r="B12" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="51"/>
+      <c r="I12" s="48"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2">
         <v>786432</v>
@@ -1031,125 +1226,528 @@
       <c r="C13" s="2">
         <v>4</v>
       </c>
-      <c r="D13" s="2">
-        <f>$B13*$C13*$B$20 + $B$21</f>
+      <c r="D13" s="11">
+        <f>$B13*$C13*$I$13 + $I$14</f>
         <v>4562.1665434388442</v>
       </c>
-      <c r="E13" s="3">
-        <f>$B13*$C13*$B$22 + $B$23</f>
+      <c r="E13" s="30">
+        <f>$B13*$C13*$I$15 + $I$16</f>
         <v>6671.5308280954259</v>
       </c>
+      <c r="G13" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1.4582852584745199E-3</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>262144</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14" s="12">
+        <f>$B14*$C14*$I$13 + $I$14</f>
+        <v>1503.9206970584871</v>
+      </c>
+      <c r="E14" s="31">
+        <f>$B14*$C14*$I$15 + $I$16</f>
+        <v>2207.799534354021</v>
+      </c>
+      <c r="G14" s="50"/>
+      <c r="H14" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="8">
+        <v>-25.202226131690999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>262144</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15" s="12">
+        <f>$B15*$C15*$I$13 + $I$14</f>
+        <v>1503.9206970584871</v>
+      </c>
+      <c r="E15" s="31">
+        <f>$B15*$C15*$I$15 + $I$16</f>
+        <v>2207.799534354021</v>
+      </c>
+      <c r="G15" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="4">
+        <v>2.1284729450900099E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16" s="12">
+        <f>$B16*$C16*$I$13 + $I$14</f>
+        <v>-25.149727862385916</v>
+      </c>
+      <c r="E16" s="31">
+        <f>$B16*$C16*$I$15 + $I$16</f>
+        <v>-23.989487490657858</v>
+      </c>
+      <c r="G16" s="50"/>
+      <c r="H16" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="8">
+        <v>-24.066112516681098</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="6">
         <v>262144</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C17" s="6">
         <v>4</v>
       </c>
-      <c r="D14" s="5">
-        <f t="shared" ref="D14:D17" si="1">$B14*$C14*$B$20 + $B$21</f>
+      <c r="D17" s="22">
+        <f>$B17*$C17*$I$13 + $I$14</f>
         <v>1503.9206970584871</v>
       </c>
-      <c r="E14" s="6">
-        <f t="shared" ref="E14:E17" si="2">$B14*$C14*$B$22 + $B$23</f>
+      <c r="E17" s="32">
+        <f>$B17*$C17*$I$15 + $I$16</f>
         <v>2207.799534354021</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="5">
-        <v>262144</v>
-      </c>
-      <c r="C15" s="5">
-        <v>4</v>
-      </c>
-      <c r="D15" s="5">
-        <f t="shared" si="1"/>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="59"/>
+      <c r="B20" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20" s="58" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="65">
+        <v>0</v>
+      </c>
+      <c r="C21" s="68">
+        <f>D14</f>
         <v>1503.9206970584871</v>
       </c>
-      <c r="E15" s="6">
-        <f t="shared" si="2"/>
-        <v>2207.799534354021</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="5">
+      <c r="D21" s="68">
+        <f>D14</f>
+        <v>1503.9206970584871</v>
+      </c>
+      <c r="E21" s="66">
+        <v>0</v>
+      </c>
+      <c r="F21" s="66">
+        <v>0</v>
+      </c>
+      <c r="G21" s="66">
+        <v>0</v>
+      </c>
+      <c r="H21" s="66">
+        <v>0</v>
+      </c>
+      <c r="I21" s="66">
+        <v>0</v>
+      </c>
+      <c r="J21" s="66">
+        <v>0</v>
+      </c>
+      <c r="K21" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="52">
+        <v>0</v>
+      </c>
+      <c r="C22" s="60">
+        <v>0</v>
+      </c>
+      <c r="D22" s="69">
+        <f>D17</f>
+        <v>1503.9206970584871</v>
+      </c>
+      <c r="E22" s="69">
+        <f>D17</f>
+        <v>1503.9206970584871</v>
+      </c>
+      <c r="F22" s="69">
+        <f>D17</f>
+        <v>1503.9206970584871</v>
+      </c>
+      <c r="G22" s="60">
+        <v>0</v>
+      </c>
+      <c r="H22" s="60">
+        <v>0</v>
+      </c>
+      <c r="I22" s="60">
+        <v>0</v>
+      </c>
+      <c r="J22" s="60">
+        <v>0</v>
+      </c>
+      <c r="K22" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="52">
+        <v>0</v>
+      </c>
+      <c r="C23" s="60">
+        <v>0</v>
+      </c>
+      <c r="D23" s="60">
+        <v>0</v>
+      </c>
+      <c r="E23" s="60">
+        <v>0</v>
+      </c>
+      <c r="F23" s="69">
+        <f>D14</f>
+        <v>1503.9206970584871</v>
+      </c>
+      <c r="G23" s="60">
+        <v>0</v>
+      </c>
+      <c r="H23" s="60">
+        <v>0</v>
+      </c>
+      <c r="I23" s="60">
+        <v>0</v>
+      </c>
+      <c r="J23" s="60">
+        <v>0</v>
+      </c>
+      <c r="K23" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="52">
+        <v>0</v>
+      </c>
+      <c r="C24" s="60">
+        <v>0</v>
+      </c>
+      <c r="D24" s="60">
+        <v>0</v>
+      </c>
+      <c r="E24" s="60">
+        <v>0</v>
+      </c>
+      <c r="F24" s="69">
+        <f>D15</f>
+        <v>1503.9206970584871</v>
+      </c>
+      <c r="G24" s="60">
+        <v>0</v>
+      </c>
+      <c r="H24" s="60">
+        <v>0</v>
+      </c>
+      <c r="I24" s="60">
+        <v>0</v>
+      </c>
+      <c r="J24" s="60">
+        <v>0</v>
+      </c>
+      <c r="K24" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="52">
+        <v>0</v>
+      </c>
+      <c r="C25" s="60">
+        <v>0</v>
+      </c>
+      <c r="D25" s="60">
+        <v>0</v>
+      </c>
+      <c r="E25" s="60">
+        <v>0</v>
+      </c>
+      <c r="F25" s="60">
+        <v>0</v>
+      </c>
+      <c r="G25" s="60">
+        <v>0</v>
+      </c>
+      <c r="H25" s="60">
+        <v>0</v>
+      </c>
+      <c r="I25" s="60">
+        <v>0</v>
+      </c>
+      <c r="J25" s="60">
+        <v>0</v>
+      </c>
+      <c r="K25" s="70">
+        <f>D17</f>
+        <v>1503.9206970584871</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="5">
-        <v>4</v>
-      </c>
-      <c r="D16" s="5">
-        <f t="shared" si="1"/>
+      <c r="B26" s="52">
+        <v>0</v>
+      </c>
+      <c r="C26" s="69">
+        <f>D16</f>
         <v>-25.149727862385916</v>
       </c>
-      <c r="E16" s="6">
-        <f t="shared" si="2"/>
-        <v>-23.989487490657858</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="9">
-        <v>262144</v>
-      </c>
-      <c r="C17" s="9">
-        <v>4</v>
-      </c>
-      <c r="D17" s="9">
-        <f t="shared" si="1"/>
+      <c r="D26" s="60">
+        <v>0</v>
+      </c>
+      <c r="E26" s="60">
+        <v>0</v>
+      </c>
+      <c r="F26" s="60">
+        <v>0</v>
+      </c>
+      <c r="G26" s="60">
+        <v>0</v>
+      </c>
+      <c r="H26" s="69">
+        <f>D16</f>
+        <v>-25.149727862385916</v>
+      </c>
+      <c r="I26" s="60">
+        <v>0</v>
+      </c>
+      <c r="J26" s="60">
+        <v>0</v>
+      </c>
+      <c r="K26" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="52">
+        <v>0</v>
+      </c>
+      <c r="C27" s="60">
+        <v>0</v>
+      </c>
+      <c r="D27" s="69">
+        <f>D16</f>
+        <v>-25.149727862385916</v>
+      </c>
+      <c r="E27" s="60">
+        <v>0</v>
+      </c>
+      <c r="F27" s="60">
+        <v>0</v>
+      </c>
+      <c r="G27" s="60">
+        <v>0</v>
+      </c>
+      <c r="H27" s="60">
+        <v>0</v>
+      </c>
+      <c r="I27" s="69">
+        <f>D16</f>
+        <v>-25.149727862385916</v>
+      </c>
+      <c r="J27" s="60">
+        <v>0</v>
+      </c>
+      <c r="K27" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="52">
+        <v>0</v>
+      </c>
+      <c r="C28" s="60">
+        <v>0</v>
+      </c>
+      <c r="D28" s="60">
+        <v>0</v>
+      </c>
+      <c r="E28" s="69">
+        <f>D16</f>
+        <v>-25.149727862385916</v>
+      </c>
+      <c r="F28" s="60">
+        <v>0</v>
+      </c>
+      <c r="G28" s="60">
+        <v>0</v>
+      </c>
+      <c r="H28" s="60">
+        <v>0</v>
+      </c>
+      <c r="I28" s="60">
+        <v>0</v>
+      </c>
+      <c r="J28" s="60">
+        <v>0</v>
+      </c>
+      <c r="K28" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="71">
+        <f>D13+D14</f>
+        <v>6066.0872404973315</v>
+      </c>
+      <c r="C29" s="69">
+        <f>D17</f>
         <v>1503.9206970584871</v>
       </c>
-      <c r="E17" s="11">
-        <f t="shared" si="2"/>
-        <v>2207.799534354021</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20">
-        <v>1.4582852584745199E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21">
-        <v>-25.202226131690999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22">
-        <v>2.1284729450900099E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23">
-        <v>-24.066112516681098</v>
+      <c r="D29" s="60">
+        <v>0</v>
+      </c>
+      <c r="E29" s="69">
+        <f>D15</f>
+        <v>1503.9206970584871</v>
+      </c>
+      <c r="F29" s="60">
+        <v>0</v>
+      </c>
+      <c r="G29" s="69">
+        <f>D16</f>
+        <v>-25.149727862385916</v>
+      </c>
+      <c r="H29" s="60">
+        <v>0</v>
+      </c>
+      <c r="I29" s="60">
+        <v>0</v>
+      </c>
+      <c r="J29" s="60">
+        <v>0</v>
+      </c>
+      <c r="K29" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="53">
+        <v>0</v>
+      </c>
+      <c r="C30" s="62">
+        <v>0</v>
+      </c>
+      <c r="D30" s="62">
+        <v>0</v>
+      </c>
+      <c r="E30" s="62">
+        <v>0</v>
+      </c>
+      <c r="F30" s="62">
+        <v>0</v>
+      </c>
+      <c r="G30" s="62">
+        <v>0</v>
+      </c>
+      <c r="H30" s="62">
+        <v>0</v>
+      </c>
+      <c r="I30" s="62">
+        <v>0</v>
+      </c>
+      <c r="J30" s="62">
+        <v>0</v>
+      </c>
+      <c r="K30" s="63">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:C2"/>
@@ -1157,6 +1755,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1165,7 +1764,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,301 +1780,301 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>13</v>
+      <c r="A1" s="35" t="s">
+        <v>11</v>
       </c>
       <c r="B1" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="34"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="36"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="42"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="46" t="s">
+      <c r="E2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="I2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="47" t="s">
+      <c r="J2" s="26" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="26" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="41">
         <v>149827</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="42">
         <f>$D4 * 1000000</f>
-        <v>2871.0717499999996</v>
-      </c>
-      <c r="D4" s="27">
-        <v>2.8710717499999998E-3</v>
-      </c>
-      <c r="E4" s="34">
-        <v>786595</v>
-      </c>
-      <c r="F4" s="34">
+        <v>2871.1593500000004</v>
+      </c>
+      <c r="D4" s="41">
+        <v>2.8711593500000002E-3</v>
+      </c>
+      <c r="E4" s="41">
+        <v>786619</v>
+      </c>
+      <c r="F4" s="41">
         <v>273.97260273972603</v>
       </c>
-      <c r="G4" s="30">
-        <v>4.7964082503556098E-3</v>
-      </c>
-      <c r="H4" s="30">
-        <v>2.1053742887624401E-2</v>
-      </c>
-      <c r="I4" s="30">
-        <v>0</v>
-      </c>
-      <c r="J4" s="31">
-        <v>3.0487804878048699E-3</v>
+      <c r="G4" s="43">
+        <v>1.3271672504378201E-2</v>
+      </c>
+      <c r="H4" s="43">
+        <v>5.0492556917688197E-2</v>
+      </c>
+      <c r="I4" s="43">
+        <v>0</v>
+      </c>
+      <c r="J4" s="16">
+        <v>5.5555555555555497E-3</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="41">
+        <v>17706</v>
+      </c>
+      <c r="C5" s="42">
+        <f>$D5 * 1000000</f>
+        <v>8544.8069500000001</v>
+      </c>
+      <c r="D5" s="41">
+        <v>8.5448069500000008E-3</v>
+      </c>
+      <c r="E5" s="41">
+        <v>2341043</v>
+      </c>
+      <c r="F5" s="41">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G5" s="43">
+        <v>3.3986427320490298E-3</v>
+      </c>
+      <c r="H5" s="43">
+        <v>1.04057209573847E-2</v>
+      </c>
+      <c r="I5" s="43">
+        <v>0</v>
+      </c>
+      <c r="J5" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="41">
+        <v>17706</v>
+      </c>
+      <c r="C6" s="42">
+        <f>$D6 * 1000000</f>
+        <v>5696.7155999999995</v>
+      </c>
+      <c r="D6" s="41">
+        <v>5.6967156E-3</v>
+      </c>
+      <c r="E6" s="41">
+        <v>1560744</v>
+      </c>
+      <c r="F6" s="41">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G6" s="43">
+        <v>1.35781523642732E-2</v>
+      </c>
+      <c r="H6" s="43">
+        <v>1.6265323992994699E-2</v>
+      </c>
+      <c r="I6" s="43">
+        <v>0</v>
+      </c>
+      <c r="J6" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5">
+      <c r="B7" s="41">
         <v>17706</v>
       </c>
-      <c r="C5" s="16">
-        <f>$D5 * 1000000</f>
-        <v>8544.9602500000001</v>
-      </c>
-      <c r="D5" s="27">
-        <v>8.5449602500000006E-3</v>
-      </c>
-      <c r="E5" s="34">
-        <v>2341085</v>
-      </c>
-      <c r="F5" s="34">
+      <c r="C7" s="42">
+        <f t="shared" ref="C7:C9" si="0">$D7 * 1000000</f>
+        <v>5696.7082999999993</v>
+      </c>
+      <c r="D7" s="41">
+        <v>5.6967082999999996E-3</v>
+      </c>
+      <c r="E7" s="41">
+        <v>1560742</v>
+      </c>
+      <c r="F7" s="41">
         <v>273.97260273972603</v>
       </c>
-      <c r="G5" s="30">
-        <v>1.83643758890469E-3</v>
-      </c>
-      <c r="H5" s="30">
-        <v>5.3220572546230404E-3</v>
-      </c>
-      <c r="I5" s="30">
-        <v>0</v>
-      </c>
-      <c r="J5" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>17706</v>
-      </c>
-      <c r="C6" s="16">
-        <f>$D6 * 1000000</f>
-        <v>8544.9602500000001</v>
-      </c>
-      <c r="D6" s="27">
-        <v>8.5449602500000006E-3</v>
-      </c>
-      <c r="E6" s="34">
-        <v>2341085</v>
-      </c>
-      <c r="F6" s="34">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="G6" s="30">
-        <v>1.83643758890469E-3</v>
-      </c>
-      <c r="H6" s="30">
-        <v>5.3220572546230404E-3</v>
-      </c>
-      <c r="I6" s="30">
-        <v>0</v>
-      </c>
-      <c r="J6" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>17706</v>
-      </c>
-      <c r="C7" s="16">
-        <f t="shared" ref="C6:C9" si="0">$D7 * 1000000</f>
-        <v>8544.9602500000001</v>
-      </c>
-      <c r="D7" s="27">
-        <v>8.5449602500000006E-3</v>
-      </c>
-      <c r="E7" s="34">
-        <v>2341085</v>
-      </c>
-      <c r="F7" s="34">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="G7" s="30">
-        <v>1.83643758890469E-3</v>
-      </c>
-      <c r="H7" s="30">
-        <v>5.3220572546230404E-3</v>
-      </c>
-      <c r="I7" s="30">
-        <v>0</v>
-      </c>
-      <c r="J7" s="31">
+      <c r="G7" s="43">
+        <v>3.0137186223000499E-3</v>
+      </c>
+      <c r="H7" s="43">
+        <v>9.8730297723292407E-3</v>
+      </c>
+      <c r="I7" s="43">
+        <v>0</v>
+      </c>
+      <c r="J7" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="6">
         <v>270074</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="22">
         <f t="shared" si="0"/>
         <v>1914.1877500000001</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="6">
         <v>1.91418775E-3</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="6">
         <v>524435</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="6">
         <v>273.97260273972603</v>
       </c>
-      <c r="G8" s="32">
-        <v>2.5332281294452301E-2</v>
-      </c>
-      <c r="H8" s="32">
-        <v>1.2074368776671399E-2</v>
-      </c>
-      <c r="I8" s="32">
-        <v>0</v>
-      </c>
-      <c r="J8" s="33">
+      <c r="G8" s="17">
+        <v>7.8309252772912993E-2</v>
+      </c>
+      <c r="H8" s="17">
+        <v>2.1555750145942701E-2</v>
+      </c>
+      <c r="I8" s="17">
+        <v>0</v>
+      </c>
+      <c r="J8" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="10">
+        <v>475604</v>
+      </c>
+      <c r="C9" s="13">
+        <f t="shared" si="0"/>
+        <v>17127.559300000001</v>
+      </c>
+      <c r="D9" s="19">
+        <v>1.7127559300000001E-2</v>
+      </c>
+      <c r="E9" s="19">
+        <v>4692482</v>
+      </c>
+      <c r="F9" s="19">
+        <v>273.97260273972603</v>
+      </c>
+      <c r="G9" s="23">
+        <v>6.9120329830706304E-2</v>
+      </c>
+      <c r="H9" s="23">
+        <v>0.21306187974314</v>
+      </c>
+      <c r="I9" s="23">
+        <v>2.3947368421052602</v>
+      </c>
+      <c r="J9" s="24">
+        <v>1.03174603174603E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="13">
-        <v>475604</v>
-      </c>
-      <c r="C9" s="17">
-        <f t="shared" si="0"/>
-        <v>17127.380450000001</v>
-      </c>
-      <c r="D9" s="24">
-        <v>1.712738045E-2</v>
-      </c>
-      <c r="E9" s="24">
-        <v>4692433</v>
-      </c>
-      <c r="F9" s="24">
-        <v>273.97260273972603</v>
-      </c>
-      <c r="G9" s="36">
-        <v>1.3016202880511999E-2</v>
-      </c>
-      <c r="H9" s="36">
-        <v>6.6272892958748206E-2</v>
-      </c>
-      <c r="I9" s="36">
-        <v>0</v>
-      </c>
-      <c r="J9" s="37">
-        <v>9.1463414634146301E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>32</v>
+      <c r="B12" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2">
         <v>786432</v>
@@ -1483,94 +2082,94 @@
       <c r="C13" s="2">
         <v>4</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="11">
         <f>$B13*$C13*$B$20 + $B$21</f>
         <v>4562.1665434388442</v>
       </c>
-      <c r="E13" s="51">
+      <c r="E13" s="30">
         <f>$B13*$C13*$B$22 + $B$23</f>
         <v>6671.5308280954259</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="5">
+      <c r="A14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14">
         <v>262144</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14">
         <v>4</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="12">
         <f t="shared" ref="D14:D17" si="1">$B14*$C14*$B$20 + $B$21</f>
         <v>1503.9206970584871</v>
       </c>
-      <c r="E14" s="52">
+      <c r="E14" s="31">
         <f t="shared" ref="E14:E17" si="2">$B14*$C14*$B$22 + $B$23</f>
         <v>2207.799534354021</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="5">
+      <c r="A15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
         <v>262144</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15">
         <v>4</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="12">
         <f t="shared" si="1"/>
         <v>1503.9206970584871</v>
       </c>
-      <c r="E15" s="52">
+      <c r="E15" s="31">
         <f t="shared" si="2"/>
         <v>2207.799534354021</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="5">
+      <c r="A16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16">
         <v>9</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16">
         <v>4</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="12">
         <f t="shared" si="1"/>
         <v>-25.149727862385916</v>
       </c>
-      <c r="E16" s="52">
+      <c r="E16" s="31">
         <f t="shared" si="2"/>
         <v>-23.989487490657858</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="9">
+      <c r="A17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="6">
         <v>262144</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="6">
         <v>4</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="22">
         <f t="shared" si="1"/>
         <v>1503.9206970584871</v>
       </c>
-      <c r="E17" s="53">
+      <c r="E17" s="32">
         <f t="shared" si="2"/>
         <v>2207.799534354021</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B20">
         <v>1.4582852584745199E-3</v>
@@ -1578,7 +2177,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B21">
         <v>-25.202226131690999</v>
@@ -1586,7 +2185,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B22">
         <v>2.1284729450900099E-3</v>
@@ -1594,7 +2193,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B23">
         <v>-24.066112516681098</v>

--- a/TaskgraphsEdgeDetect/hwsw-partitioning/TaskGraph-Attributes.xlsx
+++ b/TaskgraphsEdgeDetect/hwsw-partitioning/TaskGraph-Attributes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago\Dev\Experiments\TaskgraphsEdgeDetect\hwsw-partitioning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD33E6F0-8CD8-4DBF-8FDB-74976E8DD6C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D5B146-117D-4D60-9DDE-A810A64D2DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="V0" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="43">
   <si>
     <t>latency</t>
   </si>
@@ -130,18 +130,6 @@
   </si>
   <si>
     <t>RoundtripCopyTime (us)</t>
-  </si>
-  <si>
-    <t>m-oneway</t>
-  </si>
-  <si>
-    <t>b-oneway</t>
-  </si>
-  <si>
-    <t>m-roundtrip</t>
-  </si>
-  <si>
-    <t>b-roundtrip</t>
   </si>
   <si>
     <t>set_filter_vertical</t>
@@ -426,16 +414,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -472,51 +458,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -529,7 +474,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -554,7 +499,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -563,6 +508,48 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,6 +611,61 @@
         <a:xfrm>
           <a:off x="11725275" y="76200"/>
           <a:ext cx="4039613" cy="6572250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD500D6C-D3CB-DE92-D4DB-D446EFD8F662}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11896725" y="47625"/>
+          <a:ext cx="4686300" cy="6200775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -900,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,48 +960,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="34"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="61"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="25" t="s">
+      <c r="A2" s="63"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="25" t="s">
+      <c r="E2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="24" t="s">
         <v>5</v>
       </c>
     </row>
@@ -970,7 +1012,7 @@
       <c r="B3" s="2">
         <v>143601</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="9">
         <f>$D3 * 1000000</f>
         <v>2871.1593500000004</v>
       </c>
@@ -983,16 +1025,16 @@
       <c r="F3" s="2">
         <v>273.97260273972603</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="12">
         <v>1.3271672504378201E-2</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="12">
         <v>5.0492556917688197E-2</v>
       </c>
-      <c r="I3" s="14">
-        <v>0</v>
-      </c>
-      <c r="J3" s="15">
+      <c r="I3" s="12">
+        <v>0</v>
+      </c>
+      <c r="J3" s="13">
         <v>5.5555555555555497E-3</v>
       </c>
     </row>
@@ -1000,32 +1042,32 @@
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B4">
         <v>14467</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="10">
         <f t="shared" ref="C4:C9" si="0">$D4 * 1000000</f>
         <v>8546.0698500000017</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4">
         <v>8.5460698500000008E-3</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4">
         <v>2341389</v>
       </c>
-      <c r="F4" s="41">
+      <c r="F4">
         <v>273.97260273972603</v>
       </c>
-      <c r="G4" s="43">
+      <c r="G4" s="31">
         <v>2.6514156450671299E-2</v>
       </c>
-      <c r="H4" s="43">
+      <c r="H4" s="31">
         <v>0.133413601868067</v>
       </c>
-      <c r="I4" s="43">
-        <v>0</v>
-      </c>
-      <c r="J4" s="16">
+      <c r="I4" s="31">
+        <v>0</v>
+      </c>
+      <c r="J4" s="14">
         <v>1.0714285714285701E-2</v>
       </c>
     </row>
@@ -1033,32 +1075,32 @@
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5">
         <v>245034</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="10">
         <f t="shared" si="0"/>
         <v>1914.1877500000001</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5">
         <v>1.91418775E-3</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5">
         <v>524435</v>
       </c>
-      <c r="F5" s="41">
+      <c r="F5">
         <v>273.97260273972603</v>
       </c>
-      <c r="G5" s="43">
+      <c r="G5" s="31">
         <v>7.8309252772912993E-2</v>
       </c>
-      <c r="H5" s="43">
+      <c r="H5" s="31">
         <v>2.1555750145942701E-2</v>
       </c>
-      <c r="I5" s="43">
-        <v>0</v>
-      </c>
-      <c r="J5" s="16">
+      <c r="I5" s="31">
+        <v>0</v>
+      </c>
+      <c r="J5" s="14">
         <v>0</v>
       </c>
     </row>
@@ -1066,155 +1108,155 @@
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="41">
-        <v>0</v>
-      </c>
-      <c r="C6" s="42">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="10">
         <f t="shared" si="0"/>
         <v>0.2555</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="32">
         <v>2.5549999999999998E-7</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6">
         <v>70</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6">
         <v>273.97260273972603</v>
       </c>
-      <c r="G6" s="43">
+      <c r="G6" s="31">
         <v>3.3785755983654401E-3</v>
       </c>
-      <c r="H6" s="43">
+      <c r="H6" s="31">
         <v>1.0402072387624001E-2</v>
       </c>
-      <c r="I6" s="43">
-        <v>0</v>
-      </c>
-      <c r="J6" s="16">
+      <c r="I6" s="31">
+        <v>0</v>
+      </c>
+      <c r="J6" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="41">
-        <v>0</v>
-      </c>
-      <c r="C7" s="42">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="10">
         <f t="shared" si="0"/>
         <v>0.2555</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="32">
         <v>2.5549999999999998E-7</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7">
         <v>70</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7">
         <v>273.97260273972603</v>
       </c>
-      <c r="G7" s="43">
+      <c r="G7" s="31">
         <v>3.3785755983654401E-3</v>
       </c>
-      <c r="H7" s="43">
+      <c r="H7" s="31">
         <v>1.0402072387624001E-2</v>
       </c>
-      <c r="I7" s="43">
-        <v>0</v>
-      </c>
-      <c r="J7" s="16">
+      <c r="I7" s="31">
+        <v>0</v>
+      </c>
+      <c r="J7" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="6">
-        <v>0</v>
-      </c>
-      <c r="C8" s="22">
+      <c r="A8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="20">
         <f t="shared" si="0"/>
         <v>0.2555</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>2.5549999999999998E-7</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>70</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>273.97260273972603</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="15">
         <v>3.3785755983654401E-3</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="15">
         <v>1.0402072387624001E-2</v>
       </c>
-      <c r="I8" s="17">
-        <v>0</v>
-      </c>
-      <c r="J8" s="18">
+      <c r="I8" s="15">
+        <v>0</v>
+      </c>
+      <c r="J8" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="8">
         <v>435372</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="11">
         <f t="shared" si="0"/>
         <v>534535.19634999998</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="8">
         <v>0.53453519635000002</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="8">
         <v>146447999</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="8">
         <v>273.97260273972603</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9" s="33">
         <v>0.11206217162872099</v>
       </c>
-      <c r="H9" s="45">
+      <c r="H9" s="33">
         <v>0.19555239346176201</v>
       </c>
-      <c r="I9" s="45">
-        <v>0</v>
-      </c>
-      <c r="J9" s="46">
+      <c r="I9" s="33">
+        <v>0</v>
+      </c>
+      <c r="J9" s="34">
         <v>1.6269841269841202E-2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="51"/>
-      <c r="I12" s="48"/>
+      <c r="G12" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="58"/>
+      <c r="I12" s="59"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -1226,21 +1268,21 @@
       <c r="C13" s="2">
         <v>4</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="9">
         <f>$B13*$C13*$I$13 + $I$14</f>
         <v>4562.1665434388442</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="28">
         <f>$B13*$C13*$I$15 + $I$16</f>
         <v>6671.5308280954259</v>
       </c>
-      <c r="G13" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="4">
+      <c r="G13" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="68">
         <v>1.4582852584745199E-3</v>
       </c>
     </row>
@@ -1254,19 +1296,19 @@
       <c r="C14">
         <v>4</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="10">
         <f>$B14*$C14*$I$13 + $I$14</f>
         <v>1503.9206970584871</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="29">
         <f>$B14*$C14*$I$15 + $I$16</f>
         <v>2207.799534354021</v>
       </c>
-      <c r="G14" s="50"/>
-      <c r="H14" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="8">
+      <c r="G14" s="56"/>
+      <c r="H14" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="69">
         <v>-25.202226131690999</v>
       </c>
     </row>
@@ -1280,21 +1322,21 @@
       <c r="C15">
         <v>4</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="10">
         <f>$B15*$C15*$I$13 + $I$14</f>
         <v>1503.9206970584871</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="29">
         <f>$B15*$C15*$I$15 + $I$16</f>
         <v>2207.799534354021</v>
       </c>
-      <c r="G15" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I15" s="4">
+      <c r="G15" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="70">
         <v>2.1284729450900099E-3</v>
       </c>
     </row>
@@ -1308,438 +1350,438 @@
       <c r="C16">
         <v>4</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="10">
         <f>$B16*$C16*$I$13 + $I$14</f>
         <v>-25.149727862385916</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="29">
         <f>$B16*$C16*$I$15 + $I$16</f>
         <v>-23.989487490657858</v>
       </c>
-      <c r="G16" s="50"/>
-      <c r="H16" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="8">
+      <c r="G16" s="56"/>
+      <c r="H16" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" s="69">
         <v>-24.066112516681098</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>262144</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>4</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="20">
         <f>$B17*$C17*$I$13 + $I$14</f>
         <v>1503.9206970584871</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="30">
         <f>$B17*$C17*$I$15 + $I$16</f>
         <v>2207.799534354021</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="59"/>
-      <c r="B20" s="64" t="s">
+      <c r="A20" s="42"/>
+      <c r="B20" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="57" t="s">
+      <c r="C20" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="57" t="s">
+      <c r="G20" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="I20" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="J20" s="57" t="s">
+      <c r="H20" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" s="41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="48">
+        <v>0</v>
+      </c>
+      <c r="C21" s="51">
+        <f>D14</f>
+        <v>1503.9206970584871</v>
+      </c>
+      <c r="D21" s="51">
+        <f>D14</f>
+        <v>1503.9206970584871</v>
+      </c>
+      <c r="E21" s="49">
+        <v>0</v>
+      </c>
+      <c r="F21" s="49">
+        <v>0</v>
+      </c>
+      <c r="G21" s="49">
+        <v>0</v>
+      </c>
+      <c r="H21" s="49">
+        <v>0</v>
+      </c>
+      <c r="I21" s="49">
+        <v>0</v>
+      </c>
+      <c r="J21" s="49">
+        <v>0</v>
+      </c>
+      <c r="K21" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="35">
+        <v>0</v>
+      </c>
+      <c r="C22" s="43">
+        <v>0</v>
+      </c>
+      <c r="D22" s="52">
+        <f>D17</f>
+        <v>1503.9206970584871</v>
+      </c>
+      <c r="E22" s="52">
+        <f>D17</f>
+        <v>1503.9206970584871</v>
+      </c>
+      <c r="F22" s="52">
+        <f>D17</f>
+        <v>1503.9206970584871</v>
+      </c>
+      <c r="G22" s="43">
+        <v>0</v>
+      </c>
+      <c r="H22" s="43">
+        <v>0</v>
+      </c>
+      <c r="I22" s="43">
+        <v>0</v>
+      </c>
+      <c r="J22" s="43">
+        <v>0</v>
+      </c>
+      <c r="K22" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="35">
+        <v>0</v>
+      </c>
+      <c r="C23" s="43">
+        <v>0</v>
+      </c>
+      <c r="D23" s="43">
+        <v>0</v>
+      </c>
+      <c r="E23" s="43">
+        <v>0</v>
+      </c>
+      <c r="F23" s="52">
+        <f>D14</f>
+        <v>1503.9206970584871</v>
+      </c>
+      <c r="G23" s="43">
+        <v>0</v>
+      </c>
+      <c r="H23" s="43">
+        <v>0</v>
+      </c>
+      <c r="I23" s="43">
+        <v>0</v>
+      </c>
+      <c r="J23" s="43">
+        <v>0</v>
+      </c>
+      <c r="K23" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="K20" s="58" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="65">
-        <v>0</v>
-      </c>
-      <c r="C21" s="68">
-        <f>D14</f>
-        <v>1503.9206970584871</v>
-      </c>
-      <c r="D21" s="68">
-        <f>D14</f>
-        <v>1503.9206970584871</v>
-      </c>
-      <c r="E21" s="66">
-        <v>0</v>
-      </c>
-      <c r="F21" s="66">
-        <v>0</v>
-      </c>
-      <c r="G21" s="66">
-        <v>0</v>
-      </c>
-      <c r="H21" s="66">
-        <v>0</v>
-      </c>
-      <c r="I21" s="66">
-        <v>0</v>
-      </c>
-      <c r="J21" s="66">
-        <v>0</v>
-      </c>
-      <c r="K21" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="52">
-        <v>0</v>
-      </c>
-      <c r="C22" s="60">
-        <v>0</v>
-      </c>
-      <c r="D22" s="69">
+      <c r="B24" s="35">
+        <v>0</v>
+      </c>
+      <c r="C24" s="43">
+        <v>0</v>
+      </c>
+      <c r="D24" s="43">
+        <v>0</v>
+      </c>
+      <c r="E24" s="43">
+        <v>0</v>
+      </c>
+      <c r="F24" s="52">
+        <f>D15</f>
+        <v>1503.9206970584871</v>
+      </c>
+      <c r="G24" s="43">
+        <v>0</v>
+      </c>
+      <c r="H24" s="43">
+        <v>0</v>
+      </c>
+      <c r="I24" s="43">
+        <v>0</v>
+      </c>
+      <c r="J24" s="43">
+        <v>0</v>
+      </c>
+      <c r="K24" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="35">
+        <v>0</v>
+      </c>
+      <c r="C25" s="43">
+        <v>0</v>
+      </c>
+      <c r="D25" s="43">
+        <v>0</v>
+      </c>
+      <c r="E25" s="43">
+        <v>0</v>
+      </c>
+      <c r="F25" s="43">
+        <v>0</v>
+      </c>
+      <c r="G25" s="43">
+        <v>0</v>
+      </c>
+      <c r="H25" s="43">
+        <v>0</v>
+      </c>
+      <c r="I25" s="43">
+        <v>0</v>
+      </c>
+      <c r="J25" s="43">
+        <v>0</v>
+      </c>
+      <c r="K25" s="53">
         <f>D17</f>
         <v>1503.9206970584871</v>
       </c>
-      <c r="E22" s="69">
-        <f>D17</f>
-        <v>1503.9206970584871</v>
-      </c>
-      <c r="F22" s="69">
-        <f>D17</f>
-        <v>1503.9206970584871</v>
-      </c>
-      <c r="G22" s="60">
-        <v>0</v>
-      </c>
-      <c r="H22" s="60">
-        <v>0</v>
-      </c>
-      <c r="I22" s="60">
-        <v>0</v>
-      </c>
-      <c r="J22" s="60">
-        <v>0</v>
-      </c>
-      <c r="K22" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="52">
-        <v>0</v>
-      </c>
-      <c r="C23" s="60">
-        <v>0</v>
-      </c>
-      <c r="D23" s="60">
-        <v>0</v>
-      </c>
-      <c r="E23" s="60">
-        <v>0</v>
-      </c>
-      <c r="F23" s="69">
-        <f>D14</f>
-        <v>1503.9206970584871</v>
-      </c>
-      <c r="G23" s="60">
-        <v>0</v>
-      </c>
-      <c r="H23" s="60">
-        <v>0</v>
-      </c>
-      <c r="I23" s="60">
-        <v>0</v>
-      </c>
-      <c r="J23" s="60">
-        <v>0</v>
-      </c>
-      <c r="K23" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="52">
-        <v>0</v>
-      </c>
-      <c r="C24" s="60">
-        <v>0</v>
-      </c>
-      <c r="D24" s="60">
-        <v>0</v>
-      </c>
-      <c r="E24" s="60">
-        <v>0</v>
-      </c>
-      <c r="F24" s="69">
-        <f>D15</f>
-        <v>1503.9206970584871</v>
-      </c>
-      <c r="G24" s="60">
-        <v>0</v>
-      </c>
-      <c r="H24" s="60">
-        <v>0</v>
-      </c>
-      <c r="I24" s="60">
-        <v>0</v>
-      </c>
-      <c r="J24" s="60">
-        <v>0</v>
-      </c>
-      <c r="K24" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="52">
-        <v>0</v>
-      </c>
-      <c r="C25" s="60">
-        <v>0</v>
-      </c>
-      <c r="D25" s="60">
-        <v>0</v>
-      </c>
-      <c r="E25" s="60">
-        <v>0</v>
-      </c>
-      <c r="F25" s="60">
-        <v>0</v>
-      </c>
-      <c r="G25" s="60">
-        <v>0</v>
-      </c>
-      <c r="H25" s="60">
-        <v>0</v>
-      </c>
-      <c r="I25" s="60">
-        <v>0</v>
-      </c>
-      <c r="J25" s="60">
-        <v>0</v>
-      </c>
-      <c r="K25" s="70">
-        <f>D17</f>
-        <v>1503.9206970584871</v>
-      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="55" t="s">
+      <c r="A26" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="52">
-        <v>0</v>
-      </c>
-      <c r="C26" s="69">
+      <c r="B26" s="35">
+        <v>0</v>
+      </c>
+      <c r="C26" s="52">
         <f>D16</f>
         <v>-25.149727862385916</v>
       </c>
-      <c r="D26" s="60">
-        <v>0</v>
-      </c>
-      <c r="E26" s="60">
-        <v>0</v>
-      </c>
-      <c r="F26" s="60">
-        <v>0</v>
-      </c>
-      <c r="G26" s="60">
-        <v>0</v>
-      </c>
-      <c r="H26" s="69">
+      <c r="D26" s="43">
+        <v>0</v>
+      </c>
+      <c r="E26" s="43">
+        <v>0</v>
+      </c>
+      <c r="F26" s="43">
+        <v>0</v>
+      </c>
+      <c r="G26" s="43">
+        <v>0</v>
+      </c>
+      <c r="H26" s="52">
         <f>D16</f>
         <v>-25.149727862385916</v>
       </c>
-      <c r="I26" s="60">
-        <v>0</v>
-      </c>
-      <c r="J26" s="60">
-        <v>0</v>
-      </c>
-      <c r="K26" s="61">
+      <c r="I26" s="43">
+        <v>0</v>
+      </c>
+      <c r="J26" s="43">
+        <v>0</v>
+      </c>
+      <c r="K26" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="52">
-        <v>0</v>
-      </c>
-      <c r="C27" s="60">
-        <v>0</v>
-      </c>
-      <c r="D27" s="69">
+      <c r="A27" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="35">
+        <v>0</v>
+      </c>
+      <c r="C27" s="43">
+        <v>0</v>
+      </c>
+      <c r="D27" s="52">
         <f>D16</f>
         <v>-25.149727862385916</v>
       </c>
-      <c r="E27" s="60">
-        <v>0</v>
-      </c>
-      <c r="F27" s="60">
-        <v>0</v>
-      </c>
-      <c r="G27" s="60">
-        <v>0</v>
-      </c>
-      <c r="H27" s="60">
-        <v>0</v>
-      </c>
-      <c r="I27" s="69">
+      <c r="E27" s="43">
+        <v>0</v>
+      </c>
+      <c r="F27" s="43">
+        <v>0</v>
+      </c>
+      <c r="G27" s="43">
+        <v>0</v>
+      </c>
+      <c r="H27" s="43">
+        <v>0</v>
+      </c>
+      <c r="I27" s="52">
         <f>D16</f>
         <v>-25.149727862385916</v>
       </c>
-      <c r="J27" s="60">
-        <v>0</v>
-      </c>
-      <c r="K27" s="61">
+      <c r="J27" s="43">
+        <v>0</v>
+      </c>
+      <c r="K27" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="52">
-        <v>0</v>
-      </c>
-      <c r="C28" s="60">
-        <v>0</v>
-      </c>
-      <c r="D28" s="60">
-        <v>0</v>
-      </c>
-      <c r="E28" s="69">
+      <c r="A28" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="35">
+        <v>0</v>
+      </c>
+      <c r="C28" s="43">
+        <v>0</v>
+      </c>
+      <c r="D28" s="43">
+        <v>0</v>
+      </c>
+      <c r="E28" s="52">
         <f>D16</f>
         <v>-25.149727862385916</v>
       </c>
-      <c r="F28" s="60">
-        <v>0</v>
-      </c>
-      <c r="G28" s="60">
-        <v>0</v>
-      </c>
-      <c r="H28" s="60">
-        <v>0</v>
-      </c>
-      <c r="I28" s="60">
-        <v>0</v>
-      </c>
-      <c r="J28" s="60">
-        <v>0</v>
-      </c>
-      <c r="K28" s="61">
+      <c r="F28" s="43">
+        <v>0</v>
+      </c>
+      <c r="G28" s="43">
+        <v>0</v>
+      </c>
+      <c r="H28" s="43">
+        <v>0</v>
+      </c>
+      <c r="I28" s="43">
+        <v>0</v>
+      </c>
+      <c r="J28" s="43">
+        <v>0</v>
+      </c>
+      <c r="K28" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="71">
+      <c r="A29" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="54">
         <f>D13+D14</f>
         <v>6066.0872404973315</v>
       </c>
-      <c r="C29" s="69">
+      <c r="C29" s="52">
         <f>D17</f>
         <v>1503.9206970584871</v>
       </c>
-      <c r="D29" s="60">
-        <v>0</v>
-      </c>
-      <c r="E29" s="69">
+      <c r="D29" s="43">
+        <v>0</v>
+      </c>
+      <c r="E29" s="52">
         <f>D15</f>
         <v>1503.9206970584871</v>
       </c>
-      <c r="F29" s="60">
-        <v>0</v>
-      </c>
-      <c r="G29" s="69">
+      <c r="F29" s="43">
+        <v>0</v>
+      </c>
+      <c r="G29" s="52">
         <f>D16</f>
         <v>-25.149727862385916</v>
       </c>
-      <c r="H29" s="60">
-        <v>0</v>
-      </c>
-      <c r="I29" s="60">
-        <v>0</v>
-      </c>
-      <c r="J29" s="60">
-        <v>0</v>
-      </c>
-      <c r="K29" s="61">
+      <c r="H29" s="43">
+        <v>0</v>
+      </c>
+      <c r="I29" s="43">
+        <v>0</v>
+      </c>
+      <c r="J29" s="43">
+        <v>0</v>
+      </c>
+      <c r="K29" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="53">
-        <v>0</v>
-      </c>
-      <c r="C30" s="62">
-        <v>0</v>
-      </c>
-      <c r="D30" s="62">
-        <v>0</v>
-      </c>
-      <c r="E30" s="62">
-        <v>0</v>
-      </c>
-      <c r="F30" s="62">
-        <v>0</v>
-      </c>
-      <c r="G30" s="62">
-        <v>0</v>
-      </c>
-      <c r="H30" s="62">
-        <v>0</v>
-      </c>
-      <c r="I30" s="62">
-        <v>0</v>
-      </c>
-      <c r="J30" s="62">
-        <v>0</v>
-      </c>
-      <c r="K30" s="63">
+      <c r="A30" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="36">
+        <v>0</v>
+      </c>
+      <c r="C30" s="45">
+        <v>0</v>
+      </c>
+      <c r="D30" s="45">
+        <v>0</v>
+      </c>
+      <c r="E30" s="45">
+        <v>0</v>
+      </c>
+      <c r="F30" s="45">
+        <v>0</v>
+      </c>
+      <c r="G30" s="45">
+        <v>0</v>
+      </c>
+      <c r="H30" s="45">
+        <v>0</v>
+      </c>
+      <c r="I30" s="45">
+        <v>0</v>
+      </c>
+      <c r="J30" s="45">
+        <v>0</v>
+      </c>
+      <c r="K30" s="46">
         <v>0</v>
       </c>
     </row>
@@ -1761,10 +1803,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F280CF7-3598-485E-A72B-033C2161085F}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1773,55 +1815,56 @@
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="34"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="61"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="25" t="s">
+      <c r="A2" s="63"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="25" t="s">
+      <c r="E2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="24" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1829,31 +1872,31 @@
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="19" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1861,32 +1904,32 @@
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B4">
         <v>149827</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="10">
         <f>$D4 * 1000000</f>
         <v>2871.1593500000004</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4">
         <v>2.8711593500000002E-3</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4">
         <v>786619</v>
       </c>
-      <c r="F4" s="41">
+      <c r="F4">
         <v>273.97260273972603</v>
       </c>
-      <c r="G4" s="43">
+      <c r="G4" s="31">
         <v>1.3271672504378201E-2</v>
       </c>
-      <c r="H4" s="43">
+      <c r="H4" s="31">
         <v>5.0492556917688197E-2</v>
       </c>
-      <c r="I4" s="43">
-        <v>0</v>
-      </c>
-      <c r="J4" s="16">
+      <c r="I4" s="31">
+        <v>0</v>
+      </c>
+      <c r="J4" s="14">
         <v>5.5555555555555497E-3</v>
       </c>
     </row>
@@ -1894,32 +1937,32 @@
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5">
         <v>17706</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="10">
         <f>$D5 * 1000000</f>
         <v>8544.8069500000001</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5">
         <v>8.5448069500000008E-3</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5">
         <v>2341043</v>
       </c>
-      <c r="F5" s="41">
+      <c r="F5">
         <v>273.97260273972603</v>
       </c>
-      <c r="G5" s="43">
+      <c r="G5" s="31">
         <v>3.3986427320490298E-3</v>
       </c>
-      <c r="H5" s="43">
+      <c r="H5" s="31">
         <v>1.04057209573847E-2</v>
       </c>
-      <c r="I5" s="43">
-        <v>0</v>
-      </c>
-      <c r="J5" s="16">
+      <c r="I5" s="31">
+        <v>0</v>
+      </c>
+      <c r="J5" s="14">
         <v>0</v>
       </c>
     </row>
@@ -1927,32 +1970,32 @@
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6">
         <v>17706</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="10">
         <f>$D6 * 1000000</f>
         <v>5696.7155999999995</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6">
         <v>5.6967156E-3</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6">
         <v>1560744</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6">
         <v>273.97260273972603</v>
       </c>
-      <c r="G6" s="43">
+      <c r="G6" s="31">
         <v>1.35781523642732E-2</v>
       </c>
-      <c r="H6" s="43">
+      <c r="H6" s="31">
         <v>1.6265323992994699E-2</v>
       </c>
-      <c r="I6" s="43">
-        <v>0</v>
-      </c>
-      <c r="J6" s="16">
+      <c r="I6" s="31">
+        <v>0</v>
+      </c>
+      <c r="J6" s="14">
         <v>0</v>
       </c>
     </row>
@@ -1960,117 +2003,122 @@
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7">
         <v>17706</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="10">
         <f t="shared" ref="C7:C9" si="0">$D7 * 1000000</f>
         <v>5696.7082999999993</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7">
         <v>5.6967082999999996E-3</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7">
         <v>1560742</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7">
         <v>273.97260273972603</v>
       </c>
-      <c r="G7" s="43">
+      <c r="G7" s="31">
         <v>3.0137186223000499E-3</v>
       </c>
-      <c r="H7" s="43">
+      <c r="H7" s="31">
         <v>9.8730297723292407E-3</v>
       </c>
-      <c r="I7" s="43">
-        <v>0</v>
-      </c>
-      <c r="J7" s="16">
+      <c r="I7" s="31">
+        <v>0</v>
+      </c>
+      <c r="J7" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>270074</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="20">
         <f t="shared" si="0"/>
         <v>1914.1877500000001</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>1.91418775E-3</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>524435</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>273.97260273972603</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="15">
         <v>7.8309252772912993E-2</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="15">
         <v>2.1555750145942701E-2</v>
       </c>
-      <c r="I8" s="17">
-        <v>0</v>
-      </c>
-      <c r="J8" s="18">
+      <c r="I8" s="15">
+        <v>0</v>
+      </c>
+      <c r="J8" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="8">
         <v>475604</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="11">
         <f t="shared" si="0"/>
         <v>17127.559300000001</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="17">
         <v>1.7127559300000001E-2</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="17">
         <v>4692482</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="17">
         <v>273.97260273972603</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="21">
         <v>6.9120329830706304E-2</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="21">
         <v>0.21306187974314</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="21">
         <v>2.3947368421052602</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="22">
         <v>1.03174603174603E-2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="27" t="s">
         <v>30</v>
       </c>
+      <c r="G12" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="58"/>
+      <c r="I12" s="59"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -2082,13 +2130,22 @@
       <c r="C13" s="2">
         <v>4</v>
       </c>
-      <c r="D13" s="11">
-        <f>$B13*$C13*$B$20 + $B$21</f>
+      <c r="D13" s="9">
+        <f>$B13*$C13*$I$13 + $I$14</f>
         <v>4562.1665434388442</v>
       </c>
-      <c r="E13" s="30">
-        <f>$B13*$C13*$B$22 + $B$23</f>
+      <c r="E13" s="28">
+        <f>$B13*$C13*$I$15 + $I$16</f>
         <v>6671.5308280954259</v>
+      </c>
+      <c r="G13" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="68">
+        <v>1.4582852584745199E-3</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2101,13 +2158,20 @@
       <c r="C14">
         <v>4</v>
       </c>
-      <c r="D14" s="12">
-        <f t="shared" ref="D14:D17" si="1">$B14*$C14*$B$20 + $B$21</f>
-        <v>1503.9206970584871</v>
-      </c>
-      <c r="E14" s="31">
-        <f t="shared" ref="E14:E17" si="2">$B14*$C14*$B$22 + $B$23</f>
+      <c r="D14" s="10">
+        <f>$B14*$C14*$I$13 + $I$14</f>
+        <v>1503.9206970584871</v>
+      </c>
+      <c r="E14" s="29">
+        <f>$B14*$C14*$I$15 + $I$16</f>
         <v>2207.799534354021</v>
+      </c>
+      <c r="G14" s="56"/>
+      <c r="H14" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="69">
+        <v>-25.202226131690999</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2120,93 +2184,333 @@
       <c r="C15">
         <v>4</v>
       </c>
-      <c r="D15" s="12">
-        <f t="shared" si="1"/>
-        <v>1503.9206970584871</v>
-      </c>
-      <c r="E15" s="31">
-        <f t="shared" si="2"/>
+      <c r="D15" s="10">
+        <f>$B15*$C15*$I$13 + $I$14</f>
+        <v>1503.9206970584871</v>
+      </c>
+      <c r="E15" s="29">
+        <f>$B15*$C15*$I$15 + $I$16</f>
         <v>2207.799534354021</v>
       </c>
+      <c r="G15" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="68">
+        <v>2.1284729450900099E-3</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>9</v>
-      </c>
-      <c r="C16">
+      <c r="A16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="5">
+        <v>262144</v>
+      </c>
+      <c r="C16" s="5">
         <v>4</v>
       </c>
-      <c r="D16" s="12">
-        <f t="shared" si="1"/>
-        <v>-25.149727862385916</v>
-      </c>
-      <c r="E16" s="31">
-        <f t="shared" si="2"/>
-        <v>-23.989487490657858</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="6">
-        <v>262144</v>
-      </c>
-      <c r="C17" s="6">
-        <v>4</v>
-      </c>
-      <c r="D17" s="22">
-        <f t="shared" si="1"/>
-        <v>1503.9206970584871</v>
-      </c>
-      <c r="E17" s="32">
-        <f t="shared" si="2"/>
+      <c r="D16" s="20">
+        <f>$B16*$C16*$I$13 + $I$14</f>
+        <v>1503.9206970584871</v>
+      </c>
+      <c r="E16" s="30">
+        <f>$B16*$C16*$I$15 + $I$16</f>
         <v>2207.799534354021</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
-        <v>1.4582852584745199E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
-        <v>-25.202226131690999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22">
-        <v>2.1284729450900099E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23">
+      <c r="G16" s="56"/>
+      <c r="H16" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" s="69">
         <v>-24.066112516681098</v>
       </c>
     </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="42"/>
+      <c r="B20" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="48">
+        <v>0</v>
+      </c>
+      <c r="C21" s="51">
+        <f>D14</f>
+        <v>1503.9206970584871</v>
+      </c>
+      <c r="D21" s="51">
+        <v>0</v>
+      </c>
+      <c r="E21" s="49">
+        <v>0</v>
+      </c>
+      <c r="F21" s="51">
+        <f>D15</f>
+        <v>1503.9206970584871</v>
+      </c>
+      <c r="G21" s="49">
+        <v>0</v>
+      </c>
+      <c r="H21" s="49">
+        <v>0</v>
+      </c>
+      <c r="I21" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="35">
+        <v>0</v>
+      </c>
+      <c r="C22" s="43">
+        <v>0</v>
+      </c>
+      <c r="D22" s="52">
+        <f>D14</f>
+        <v>1503.9206970584871</v>
+      </c>
+      <c r="E22" s="52">
+        <f>D14</f>
+        <v>1503.9206970584871</v>
+      </c>
+      <c r="F22" s="52">
+        <v>0</v>
+      </c>
+      <c r="G22" s="43">
+        <v>0</v>
+      </c>
+      <c r="H22" s="43">
+        <v>0</v>
+      </c>
+      <c r="I22" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="35">
+        <v>0</v>
+      </c>
+      <c r="C23" s="43">
+        <v>0</v>
+      </c>
+      <c r="D23" s="43">
+        <v>0</v>
+      </c>
+      <c r="E23" s="52">
+        <f>D16</f>
+        <v>1503.9206970584871</v>
+      </c>
+      <c r="F23" s="52">
+        <f>D16</f>
+        <v>1503.9206970584871</v>
+      </c>
+      <c r="G23" s="52">
+        <f>D14</f>
+        <v>1503.9206970584871</v>
+      </c>
+      <c r="H23" s="43">
+        <v>0</v>
+      </c>
+      <c r="I23" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="35">
+        <v>0</v>
+      </c>
+      <c r="C24" s="43">
+        <v>0</v>
+      </c>
+      <c r="D24" s="43">
+        <v>0</v>
+      </c>
+      <c r="E24" s="43">
+        <v>0</v>
+      </c>
+      <c r="F24" s="52">
+        <v>0</v>
+      </c>
+      <c r="G24" s="52">
+        <f>D16</f>
+        <v>1503.9206970584871</v>
+      </c>
+      <c r="H24" s="43">
+        <v>0</v>
+      </c>
+      <c r="I24" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="35">
+        <v>0</v>
+      </c>
+      <c r="C25" s="43">
+        <v>0</v>
+      </c>
+      <c r="D25" s="43">
+        <v>0</v>
+      </c>
+      <c r="E25" s="43">
+        <v>0</v>
+      </c>
+      <c r="F25" s="43">
+        <v>0</v>
+      </c>
+      <c r="G25" s="52">
+        <f>D15</f>
+        <v>1503.9206970584871</v>
+      </c>
+      <c r="H25" s="43">
+        <v>0</v>
+      </c>
+      <c r="I25" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="35">
+        <v>0</v>
+      </c>
+      <c r="C26" s="52">
+        <v>0</v>
+      </c>
+      <c r="D26" s="43">
+        <v>0</v>
+      </c>
+      <c r="E26" s="43">
+        <v>0</v>
+      </c>
+      <c r="F26" s="43">
+        <v>0</v>
+      </c>
+      <c r="G26" s="43">
+        <v>0</v>
+      </c>
+      <c r="H26" s="43">
+        <v>0</v>
+      </c>
+      <c r="I26" s="53">
+        <f>D16</f>
+        <v>1503.9206970584871</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="54">
+        <v>0</v>
+      </c>
+      <c r="C27" s="52">
+        <f>D13</f>
+        <v>4562.1665434388442</v>
+      </c>
+      <c r="D27" s="52">
+        <f>D16</f>
+        <v>1503.9206970584871</v>
+      </c>
+      <c r="E27" s="52">
+        <v>0</v>
+      </c>
+      <c r="F27" s="43">
+        <v>0</v>
+      </c>
+      <c r="G27" s="52">
+        <v>0</v>
+      </c>
+      <c r="H27" s="43">
+        <v>0</v>
+      </c>
+      <c r="I27" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="36">
+        <v>0</v>
+      </c>
+      <c r="C28" s="45">
+        <v>0</v>
+      </c>
+      <c r="D28" s="45">
+        <v>0</v>
+      </c>
+      <c r="E28" s="45">
+        <v>0</v>
+      </c>
+      <c r="F28" s="45">
+        <v>0</v>
+      </c>
+      <c r="G28" s="45">
+        <v>0</v>
+      </c>
+      <c r="H28" s="45">
+        <v>0</v>
+      </c>
+      <c r="I28" s="46">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:J1"/>
+    <mergeCell ref="G12:I12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/TaskgraphsEdgeDetect/hwsw-partitioning/TaskGraph-Attributes.xlsx
+++ b/TaskgraphsEdgeDetect/hwsw-partitioning/TaskGraph-Attributes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago\Dev\Experiments\TaskgraphsEdgeDetect\hwsw-partitioning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D5B146-117D-4D60-9DDE-A810A64D2DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D0F12C-546C-4B84-8DA0-D5E0693360AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1806,7 +1806,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="B21" sqref="B21:I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TaskgraphsEdgeDetect/hwsw-partitioning/TaskGraph-Attributes.xlsx
+++ b/TaskgraphsEdgeDetect/hwsw-partitioning/TaskGraph-Attributes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago\Dev\Experiments\TaskgraphsEdgeDetect\hwsw-partitioning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D0F12C-546C-4B84-8DA0-D5E0693360AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8022F8-1986-42D0-B964-D4B0B0697A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="V0" sheetId="1" r:id="rId1"/>
@@ -414,14 +414,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -459,7 +458,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -508,48 +506,49 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -943,7 +942,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,48 +959,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="62"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="23" t="s">
+      <c r="A2" s="64"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="23" t="s">
+      <c r="E2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1012,11 +1011,12 @@
       <c r="B3" s="2">
         <v>143601</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <f>$D3 * 1000000</f>
         <v>2871.1593500000004</v>
       </c>
       <c r="D3" s="2">
+        <f>$E3/($F3*1000000)</f>
         <v>2.8711593500000002E-3</v>
       </c>
       <c r="E3" s="2">
@@ -1025,16 +1025,16 @@
       <c r="F3" s="2">
         <v>273.97260273972603</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="11">
         <v>1.3271672504378201E-2</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="11">
         <v>5.0492556917688197E-2</v>
       </c>
-      <c r="I3" s="12">
-        <v>0</v>
-      </c>
-      <c r="J3" s="13">
+      <c r="I3" s="11">
+        <v>0</v>
+      </c>
+      <c r="J3" s="12">
         <v>5.5555555555555497E-3</v>
       </c>
     </row>
@@ -1045,11 +1045,12 @@
       <c r="B4">
         <v>14467</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <f t="shared" ref="C4:C9" si="0">$D4 * 1000000</f>
         <v>8546.0698500000017</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="69">
+        <f t="shared" ref="D4:D9" si="1">$E4/($F4*1000000)</f>
         <v>8.5460698500000008E-3</v>
       </c>
       <c r="E4">
@@ -1058,16 +1059,16 @@
       <c r="F4">
         <v>273.97260273972603</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="30">
         <v>2.6514156450671299E-2</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="30">
         <v>0.133413601868067</v>
       </c>
-      <c r="I4" s="31">
-        <v>0</v>
-      </c>
-      <c r="J4" s="14">
+      <c r="I4" s="30">
+        <v>0</v>
+      </c>
+      <c r="J4" s="13">
         <v>1.0714285714285701E-2</v>
       </c>
     </row>
@@ -1078,12 +1079,13 @@
       <c r="B5">
         <v>245034</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <f t="shared" si="0"/>
-        <v>1914.1877500000001</v>
-      </c>
-      <c r="D5">
-        <v>1.91418775E-3</v>
+        <v>1914.1877500000003</v>
+      </c>
+      <c r="D5" s="69">
+        <f t="shared" si="1"/>
+        <v>1.9141877500000002E-3</v>
       </c>
       <c r="E5">
         <v>524435</v>
@@ -1091,16 +1093,16 @@
       <c r="F5">
         <v>273.97260273972603</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="30">
         <v>7.8309252772912993E-2</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="30">
         <v>2.1555750145942701E-2</v>
       </c>
-      <c r="I5" s="31">
-        <v>0</v>
-      </c>
-      <c r="J5" s="14">
+      <c r="I5" s="30">
+        <v>0</v>
+      </c>
+      <c r="J5" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1111,12 +1113,13 @@
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <f t="shared" si="0"/>
         <v>0.2555</v>
       </c>
-      <c r="D6" s="32">
-        <v>2.5549999999999998E-7</v>
+      <c r="D6" s="69">
+        <f t="shared" si="1"/>
+        <v>2.5550000000000003E-7</v>
       </c>
       <c r="E6">
         <v>70</v>
@@ -1124,16 +1127,16 @@
       <c r="F6">
         <v>273.97260273972603</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="30">
         <v>3.3785755983654401E-3</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="30">
         <v>1.0402072387624001E-2</v>
       </c>
-      <c r="I6" s="31">
-        <v>0</v>
-      </c>
-      <c r="J6" s="14">
+      <c r="I6" s="30">
+        <v>0</v>
+      </c>
+      <c r="J6" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1144,12 +1147,13 @@
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <f t="shared" si="0"/>
         <v>0.2555</v>
       </c>
-      <c r="D7" s="32">
-        <v>2.5549999999999998E-7</v>
+      <c r="D7" s="69">
+        <f t="shared" si="1"/>
+        <v>2.5550000000000003E-7</v>
       </c>
       <c r="E7">
         <v>70</v>
@@ -1157,16 +1161,16 @@
       <c r="F7">
         <v>273.97260273972603</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="30">
         <v>3.3785755983654401E-3</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="30">
         <v>1.0402072387624001E-2</v>
       </c>
-      <c r="I7" s="31">
-        <v>0</v>
-      </c>
-      <c r="J7" s="14">
+      <c r="I7" s="30">
+        <v>0</v>
+      </c>
+      <c r="J7" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1177,12 +1181,13 @@
       <c r="B8" s="5">
         <v>0</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="19">
         <f t="shared" si="0"/>
         <v>0.2555</v>
       </c>
-      <c r="D8" s="6">
-        <v>2.5549999999999998E-7</v>
+      <c r="D8" s="69">
+        <f t="shared" si="1"/>
+        <v>2.5550000000000003E-7</v>
       </c>
       <c r="E8" s="5">
         <v>70</v>
@@ -1190,73 +1195,74 @@
       <c r="F8" s="5">
         <v>273.97260273972603</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="14">
         <v>3.3785755983654401E-3</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="14">
         <v>1.0402072387624001E-2</v>
       </c>
-      <c r="I8" s="15">
-        <v>0</v>
-      </c>
-      <c r="J8" s="16">
+      <c r="I8" s="14">
+        <v>0</v>
+      </c>
+      <c r="J8" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>435372</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <f t="shared" si="0"/>
         <v>534535.19634999998</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
+        <f t="shared" si="1"/>
         <v>0.53453519635000002</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>146447999</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>273.97260273972603</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="31">
         <v>0.11206217162872099</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="31">
         <v>0.19555239346176201</v>
       </c>
-      <c r="I9" s="33">
-        <v>0</v>
-      </c>
-      <c r="J9" s="34">
+      <c r="I9" s="31">
+        <v>0</v>
+      </c>
+      <c r="J9" s="32">
         <v>1.6269841269841202E-2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="57" t="s">
+      <c r="G12" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="58"/>
-      <c r="I12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="60"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -1268,21 +1274,21 @@
       <c r="C13" s="2">
         <v>4</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <f>$B13*$C13*$I$13 + $I$14</f>
         <v>4562.1665434388442</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="27">
         <f>$B13*$C13*$I$15 + $I$16</f>
         <v>6671.5308280954259</v>
       </c>
-      <c r="G13" s="55" t="s">
+      <c r="G13" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="35" t="s">
+      <c r="H13" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="68">
+      <c r="I13" s="53">
         <v>1.4582852584745199E-3</v>
       </c>
     </row>
@@ -1296,19 +1302,19 @@
       <c r="C14">
         <v>4</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <f>$B14*$C14*$I$13 + $I$14</f>
         <v>1503.9206970584871</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="28">
         <f>$B14*$C14*$I$15 + $I$16</f>
         <v>2207.799534354021</v>
       </c>
-      <c r="G14" s="56"/>
-      <c r="H14" s="36" t="s">
+      <c r="G14" s="57"/>
+      <c r="H14" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="69">
+      <c r="I14" s="54">
         <v>-25.202226131690999</v>
       </c>
     </row>
@@ -1322,21 +1328,21 @@
       <c r="C15">
         <v>4</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <f>$B15*$C15*$I$13 + $I$14</f>
         <v>1503.9206970584871</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="28">
         <f>$B15*$C15*$I$15 + $I$16</f>
         <v>2207.799534354021</v>
       </c>
-      <c r="G15" s="55" t="s">
+      <c r="G15" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="35" t="s">
+      <c r="H15" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="70">
+      <c r="I15" s="55">
         <v>2.1284729450900099E-3</v>
       </c>
     </row>
@@ -1350,19 +1356,19 @@
       <c r="C16">
         <v>4</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <f>$B16*$C16*$I$13 + $I$14</f>
         <v>-25.149727862385916</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="28">
         <f>$B16*$C16*$I$15 + $I$16</f>
         <v>-23.989487490657858</v>
       </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="36" t="s">
+      <c r="G16" s="57"/>
+      <c r="H16" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="I16" s="69">
+      <c r="I16" s="54">
         <v>-24.066112516681098</v>
       </c>
     </row>
@@ -1376,412 +1382,412 @@
       <c r="C17" s="5">
         <v>4</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="19">
         <f>$B17*$C17*$I$13 + $I$14</f>
         <v>1503.9206970584871</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="29">
         <f>$B17*$C17*$I$15 + $I$16</f>
         <v>2207.799534354021</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
-      <c r="B20" s="47" t="s">
+      <c r="A20" s="40"/>
+      <c r="B20" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="40" t="s">
+      <c r="E20" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="40" t="s">
+      <c r="F20" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="40" t="s">
+      <c r="G20" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="40" t="s">
+      <c r="H20" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="I20" s="40" t="s">
+      <c r="I20" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="J20" s="40" t="s">
+      <c r="J20" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="K20" s="41" t="s">
+      <c r="K20" s="39" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="48">
-        <v>0</v>
-      </c>
-      <c r="C21" s="51">
+      <c r="B21" s="46">
+        <v>0</v>
+      </c>
+      <c r="C21" s="49">
         <f>D14</f>
         <v>1503.9206970584871</v>
       </c>
-      <c r="D21" s="51">
+      <c r="D21" s="49">
         <f>D14</f>
         <v>1503.9206970584871</v>
       </c>
-      <c r="E21" s="49">
-        <v>0</v>
-      </c>
-      <c r="F21" s="49">
-        <v>0</v>
-      </c>
-      <c r="G21" s="49">
-        <v>0</v>
-      </c>
-      <c r="H21" s="49">
-        <v>0</v>
-      </c>
-      <c r="I21" s="49">
-        <v>0</v>
-      </c>
-      <c r="J21" s="49">
-        <v>0</v>
-      </c>
-      <c r="K21" s="50">
+      <c r="E21" s="47">
+        <v>0</v>
+      </c>
+      <c r="F21" s="47">
+        <v>0</v>
+      </c>
+      <c r="G21" s="47">
+        <v>0</v>
+      </c>
+      <c r="H21" s="47">
+        <v>0</v>
+      </c>
+      <c r="I21" s="47">
+        <v>0</v>
+      </c>
+      <c r="J21" s="47">
+        <v>0</v>
+      </c>
+      <c r="K21" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="35">
-        <v>0</v>
-      </c>
-      <c r="C22" s="43">
-        <v>0</v>
-      </c>
-      <c r="D22" s="52">
+      <c r="B22" s="33">
+        <v>0</v>
+      </c>
+      <c r="C22" s="41">
+        <v>0</v>
+      </c>
+      <c r="D22" s="50">
         <f>D17</f>
         <v>1503.9206970584871</v>
       </c>
-      <c r="E22" s="52">
+      <c r="E22" s="50">
         <f>D17</f>
         <v>1503.9206970584871</v>
       </c>
-      <c r="F22" s="52">
+      <c r="F22" s="50">
         <f>D17</f>
         <v>1503.9206970584871</v>
       </c>
-      <c r="G22" s="43">
-        <v>0</v>
-      </c>
-      <c r="H22" s="43">
-        <v>0</v>
-      </c>
-      <c r="I22" s="43">
-        <v>0</v>
-      </c>
-      <c r="J22" s="43">
-        <v>0</v>
-      </c>
-      <c r="K22" s="44">
+      <c r="G22" s="41">
+        <v>0</v>
+      </c>
+      <c r="H22" s="41">
+        <v>0</v>
+      </c>
+      <c r="I22" s="41">
+        <v>0</v>
+      </c>
+      <c r="J22" s="41">
+        <v>0</v>
+      </c>
+      <c r="K22" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="35">
-        <v>0</v>
-      </c>
-      <c r="C23" s="43">
-        <v>0</v>
-      </c>
-      <c r="D23" s="43">
-        <v>0</v>
-      </c>
-      <c r="E23" s="43">
-        <v>0</v>
-      </c>
-      <c r="F23" s="52">
+      <c r="B23" s="33">
+        <v>0</v>
+      </c>
+      <c r="C23" s="41">
+        <v>0</v>
+      </c>
+      <c r="D23" s="41">
+        <v>0</v>
+      </c>
+      <c r="E23" s="41">
+        <v>0</v>
+      </c>
+      <c r="F23" s="50">
         <f>D14</f>
         <v>1503.9206970584871</v>
       </c>
-      <c r="G23" s="43">
-        <v>0</v>
-      </c>
-      <c r="H23" s="43">
-        <v>0</v>
-      </c>
-      <c r="I23" s="43">
-        <v>0</v>
-      </c>
-      <c r="J23" s="43">
-        <v>0</v>
-      </c>
-      <c r="K23" s="44">
+      <c r="G23" s="41">
+        <v>0</v>
+      </c>
+      <c r="H23" s="41">
+        <v>0</v>
+      </c>
+      <c r="I23" s="41">
+        <v>0</v>
+      </c>
+      <c r="J23" s="41">
+        <v>0</v>
+      </c>
+      <c r="K23" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="35">
-        <v>0</v>
-      </c>
-      <c r="C24" s="43">
-        <v>0</v>
-      </c>
-      <c r="D24" s="43">
-        <v>0</v>
-      </c>
-      <c r="E24" s="43">
-        <v>0</v>
-      </c>
-      <c r="F24" s="52">
+      <c r="B24" s="33">
+        <v>0</v>
+      </c>
+      <c r="C24" s="41">
+        <v>0</v>
+      </c>
+      <c r="D24" s="41">
+        <v>0</v>
+      </c>
+      <c r="E24" s="41">
+        <v>0</v>
+      </c>
+      <c r="F24" s="50">
         <f>D15</f>
         <v>1503.9206970584871</v>
       </c>
-      <c r="G24" s="43">
-        <v>0</v>
-      </c>
-      <c r="H24" s="43">
-        <v>0</v>
-      </c>
-      <c r="I24" s="43">
-        <v>0</v>
-      </c>
-      <c r="J24" s="43">
-        <v>0</v>
-      </c>
-      <c r="K24" s="44">
+      <c r="G24" s="41">
+        <v>0</v>
+      </c>
+      <c r="H24" s="41">
+        <v>0</v>
+      </c>
+      <c r="I24" s="41">
+        <v>0</v>
+      </c>
+      <c r="J24" s="41">
+        <v>0</v>
+      </c>
+      <c r="K24" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="35">
-        <v>0</v>
-      </c>
-      <c r="C25" s="43">
-        <v>0</v>
-      </c>
-      <c r="D25" s="43">
-        <v>0</v>
-      </c>
-      <c r="E25" s="43">
-        <v>0</v>
-      </c>
-      <c r="F25" s="43">
-        <v>0</v>
-      </c>
-      <c r="G25" s="43">
-        <v>0</v>
-      </c>
-      <c r="H25" s="43">
-        <v>0</v>
-      </c>
-      <c r="I25" s="43">
-        <v>0</v>
-      </c>
-      <c r="J25" s="43">
-        <v>0</v>
-      </c>
-      <c r="K25" s="53">
+      <c r="B25" s="33">
+        <v>0</v>
+      </c>
+      <c r="C25" s="41">
+        <v>0</v>
+      </c>
+      <c r="D25" s="41">
+        <v>0</v>
+      </c>
+      <c r="E25" s="41">
+        <v>0</v>
+      </c>
+      <c r="F25" s="41">
+        <v>0</v>
+      </c>
+      <c r="G25" s="41">
+        <v>0</v>
+      </c>
+      <c r="H25" s="41">
+        <v>0</v>
+      </c>
+      <c r="I25" s="41">
+        <v>0</v>
+      </c>
+      <c r="J25" s="41">
+        <v>0</v>
+      </c>
+      <c r="K25" s="51">
         <f>D17</f>
         <v>1503.9206970584871</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="35">
-        <v>0</v>
-      </c>
-      <c r="C26" s="52">
+      <c r="B26" s="33">
+        <v>0</v>
+      </c>
+      <c r="C26" s="50">
         <f>D16</f>
         <v>-25.149727862385916</v>
       </c>
-      <c r="D26" s="43">
-        <v>0</v>
-      </c>
-      <c r="E26" s="43">
-        <v>0</v>
-      </c>
-      <c r="F26" s="43">
-        <v>0</v>
-      </c>
-      <c r="G26" s="43">
-        <v>0</v>
-      </c>
-      <c r="H26" s="52">
+      <c r="D26" s="41">
+        <v>0</v>
+      </c>
+      <c r="E26" s="41">
+        <v>0</v>
+      </c>
+      <c r="F26" s="41">
+        <v>0</v>
+      </c>
+      <c r="G26" s="41">
+        <v>0</v>
+      </c>
+      <c r="H26" s="50">
         <f>D16</f>
         <v>-25.149727862385916</v>
       </c>
-      <c r="I26" s="43">
-        <v>0</v>
-      </c>
-      <c r="J26" s="43">
-        <v>0</v>
-      </c>
-      <c r="K26" s="44">
+      <c r="I26" s="41">
+        <v>0</v>
+      </c>
+      <c r="J26" s="41">
+        <v>0</v>
+      </c>
+      <c r="K26" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="35">
-        <v>0</v>
-      </c>
-      <c r="C27" s="43">
-        <v>0</v>
-      </c>
-      <c r="D27" s="52">
+      <c r="B27" s="33">
+        <v>0</v>
+      </c>
+      <c r="C27" s="41">
+        <v>0</v>
+      </c>
+      <c r="D27" s="50">
         <f>D16</f>
         <v>-25.149727862385916</v>
       </c>
-      <c r="E27" s="43">
-        <v>0</v>
-      </c>
-      <c r="F27" s="43">
-        <v>0</v>
-      </c>
-      <c r="G27" s="43">
-        <v>0</v>
-      </c>
-      <c r="H27" s="43">
-        <v>0</v>
-      </c>
-      <c r="I27" s="52">
+      <c r="E27" s="41">
+        <v>0</v>
+      </c>
+      <c r="F27" s="41">
+        <v>0</v>
+      </c>
+      <c r="G27" s="41">
+        <v>0</v>
+      </c>
+      <c r="H27" s="41">
+        <v>0</v>
+      </c>
+      <c r="I27" s="50">
         <f>D16</f>
         <v>-25.149727862385916</v>
       </c>
-      <c r="J27" s="43">
-        <v>0</v>
-      </c>
-      <c r="K27" s="44">
+      <c r="J27" s="41">
+        <v>0</v>
+      </c>
+      <c r="K27" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="35">
-        <v>0</v>
-      </c>
-      <c r="C28" s="43">
-        <v>0</v>
-      </c>
-      <c r="D28" s="43">
-        <v>0</v>
-      </c>
-      <c r="E28" s="52">
+      <c r="B28" s="33">
+        <v>0</v>
+      </c>
+      <c r="C28" s="41">
+        <v>0</v>
+      </c>
+      <c r="D28" s="41">
+        <v>0</v>
+      </c>
+      <c r="E28" s="50">
         <f>D16</f>
         <v>-25.149727862385916</v>
       </c>
-      <c r="F28" s="43">
-        <v>0</v>
-      </c>
-      <c r="G28" s="43">
-        <v>0</v>
-      </c>
-      <c r="H28" s="43">
-        <v>0</v>
-      </c>
-      <c r="I28" s="43">
-        <v>0</v>
-      </c>
-      <c r="J28" s="43">
-        <v>0</v>
-      </c>
-      <c r="K28" s="44">
+      <c r="F28" s="41">
+        <v>0</v>
+      </c>
+      <c r="G28" s="41">
+        <v>0</v>
+      </c>
+      <c r="H28" s="41">
+        <v>0</v>
+      </c>
+      <c r="I28" s="41">
+        <v>0</v>
+      </c>
+      <c r="J28" s="41">
+        <v>0</v>
+      </c>
+      <c r="K28" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="54">
+      <c r="B29" s="52">
         <f>D13+D14</f>
         <v>6066.0872404973315</v>
       </c>
-      <c r="C29" s="52">
+      <c r="C29" s="50">
         <f>D17</f>
         <v>1503.9206970584871</v>
       </c>
-      <c r="D29" s="43">
-        <v>0</v>
-      </c>
-      <c r="E29" s="52">
+      <c r="D29" s="41">
+        <v>0</v>
+      </c>
+      <c r="E29" s="50">
         <f>D15</f>
         <v>1503.9206970584871</v>
       </c>
-      <c r="F29" s="43">
-        <v>0</v>
-      </c>
-      <c r="G29" s="52">
+      <c r="F29" s="41">
+        <v>0</v>
+      </c>
+      <c r="G29" s="50">
         <f>D16</f>
         <v>-25.149727862385916</v>
       </c>
-      <c r="H29" s="43">
-        <v>0</v>
-      </c>
-      <c r="I29" s="43">
-        <v>0</v>
-      </c>
-      <c r="J29" s="43">
-        <v>0</v>
-      </c>
-      <c r="K29" s="44">
+      <c r="H29" s="41">
+        <v>0</v>
+      </c>
+      <c r="I29" s="41">
+        <v>0</v>
+      </c>
+      <c r="J29" s="41">
+        <v>0</v>
+      </c>
+      <c r="K29" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="36">
-        <v>0</v>
-      </c>
-      <c r="C30" s="45">
-        <v>0</v>
-      </c>
-      <c r="D30" s="45">
-        <v>0</v>
-      </c>
-      <c r="E30" s="45">
-        <v>0</v>
-      </c>
-      <c r="F30" s="45">
-        <v>0</v>
-      </c>
-      <c r="G30" s="45">
-        <v>0</v>
-      </c>
-      <c r="H30" s="45">
-        <v>0</v>
-      </c>
-      <c r="I30" s="45">
-        <v>0</v>
-      </c>
-      <c r="J30" s="45">
-        <v>0</v>
-      </c>
-      <c r="K30" s="46">
+      <c r="B30" s="34">
+        <v>0</v>
+      </c>
+      <c r="C30" s="43">
+        <v>0</v>
+      </c>
+      <c r="D30" s="43">
+        <v>0</v>
+      </c>
+      <c r="E30" s="43">
+        <v>0</v>
+      </c>
+      <c r="F30" s="43">
+        <v>0</v>
+      </c>
+      <c r="G30" s="43">
+        <v>0</v>
+      </c>
+      <c r="H30" s="43">
+        <v>0</v>
+      </c>
+      <c r="I30" s="43">
+        <v>0</v>
+      </c>
+      <c r="J30" s="43">
+        <v>0</v>
+      </c>
+      <c r="K30" s="44">
         <v>0</v>
       </c>
     </row>
@@ -1806,7 +1812,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:I28"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1823,48 +1829,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="62"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="23" t="s">
+      <c r="A2" s="64"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="23" t="s">
+      <c r="E2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1872,31 +1878,31 @@
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1907,11 +1913,12 @@
       <c r="B4">
         <v>149827</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <f>$D4 * 1000000</f>
         <v>2871.1593500000004</v>
       </c>
       <c r="D4">
+        <f>$E4/($F4*1000000)</f>
         <v>2.8711593500000002E-3</v>
       </c>
       <c r="E4">
@@ -1920,16 +1927,16 @@
       <c r="F4">
         <v>273.97260273972603</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="30">
         <v>1.3271672504378201E-2</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="30">
         <v>5.0492556917688197E-2</v>
       </c>
-      <c r="I4" s="31">
-        <v>0</v>
-      </c>
-      <c r="J4" s="14">
+      <c r="I4" s="30">
+        <v>0</v>
+      </c>
+      <c r="J4" s="13">
         <v>5.5555555555555497E-3</v>
       </c>
     </row>
@@ -1940,11 +1947,12 @@
       <c r="B5">
         <v>17706</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <f>$D5 * 1000000</f>
         <v>8544.8069500000001</v>
       </c>
       <c r="D5">
+        <f t="shared" ref="D5:D9" si="0">$E5/($F5*1000000)</f>
         <v>8.5448069500000008E-3</v>
       </c>
       <c r="E5">
@@ -1953,16 +1961,16 @@
       <c r="F5">
         <v>273.97260273972603</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="30">
         <v>3.3986427320490298E-3</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="30">
         <v>1.04057209573847E-2</v>
       </c>
-      <c r="I5" s="31">
-        <v>0</v>
-      </c>
-      <c r="J5" s="14">
+      <c r="I5" s="30">
+        <v>0</v>
+      </c>
+      <c r="J5" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1973,12 +1981,13 @@
       <c r="B6">
         <v>17706</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <f>$D6 * 1000000</f>
-        <v>5696.7155999999995</v>
+        <v>5696.7156000000004</v>
       </c>
       <c r="D6">
-        <v>5.6967156E-3</v>
+        <f t="shared" si="0"/>
+        <v>5.6967156000000008E-3</v>
       </c>
       <c r="E6">
         <v>1560744</v>
@@ -1986,16 +1995,16 @@
       <c r="F6">
         <v>273.97260273972603</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="30">
         <v>1.35781523642732E-2</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="30">
         <v>1.6265323992994699E-2</v>
       </c>
-      <c r="I6" s="31">
-        <v>0</v>
-      </c>
-      <c r="J6" s="14">
+      <c r="I6" s="30">
+        <v>0</v>
+      </c>
+      <c r="J6" s="13">
         <v>0</v>
       </c>
     </row>
@@ -2006,12 +2015,13 @@
       <c r="B7">
         <v>17706</v>
       </c>
-      <c r="C7" s="10">
-        <f t="shared" ref="C7:C9" si="0">$D7 * 1000000</f>
-        <v>5696.7082999999993</v>
+      <c r="C7" s="9">
+        <f t="shared" ref="C7:C9" si="1">$D7 * 1000000</f>
+        <v>5696.7083000000002</v>
       </c>
       <c r="D7">
-        <v>5.6967082999999996E-3</v>
+        <f t="shared" si="0"/>
+        <v>5.6967083000000005E-3</v>
       </c>
       <c r="E7">
         <v>1560742</v>
@@ -2019,16 +2029,16 @@
       <c r="F7">
         <v>273.97260273972603</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="30">
         <v>3.0137186223000499E-3</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="30">
         <v>9.8730297723292407E-3</v>
       </c>
-      <c r="I7" s="31">
-        <v>0</v>
-      </c>
-      <c r="J7" s="14">
+      <c r="I7" s="30">
+        <v>0</v>
+      </c>
+      <c r="J7" s="13">
         <v>0</v>
       </c>
     </row>
@@ -2039,12 +2049,13 @@
       <c r="B8" s="5">
         <v>270074</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="19">
+        <f t="shared" si="1"/>
+        <v>1914.1877500000003</v>
+      </c>
+      <c r="D8">
         <f t="shared" si="0"/>
-        <v>1914.1877500000001</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1.91418775E-3</v>
+        <v>1.9141877500000002E-3</v>
       </c>
       <c r="E8" s="5">
         <v>524435</v>
@@ -2052,73 +2063,74 @@
       <c r="F8" s="5">
         <v>273.97260273972603</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="14">
         <v>7.8309252772912993E-2</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="14">
         <v>2.1555750145942701E-2</v>
       </c>
-      <c r="I8" s="15">
-        <v>0</v>
-      </c>
-      <c r="J8" s="16">
+      <c r="I8" s="14">
+        <v>0</v>
+      </c>
+      <c r="J8" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>475604</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
+        <f t="shared" si="1"/>
+        <v>17127.559300000001</v>
+      </c>
+      <c r="D9" s="7">
         <f t="shared" si="0"/>
-        <v>17127.559300000001</v>
-      </c>
-      <c r="D9" s="17">
         <v>1.7127559300000001E-2</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="16">
         <v>4692482</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="16">
         <v>273.97260273972603</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="20">
         <v>6.9120329830706304E-2</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="20">
         <v>0.21306187974314</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="20">
         <v>2.3947368421052602</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="21">
         <v>1.03174603174603E-2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="57" t="s">
+      <c r="G12" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="58"/>
-      <c r="I12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="60"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -2130,21 +2142,21 @@
       <c r="C13" s="2">
         <v>4</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <f>$B13*$C13*$I$13 + $I$14</f>
         <v>4562.1665434388442</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="27">
         <f>$B13*$C13*$I$15 + $I$16</f>
         <v>6671.5308280954259</v>
       </c>
-      <c r="G13" s="55" t="s">
+      <c r="G13" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="35" t="s">
+      <c r="H13" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="68">
+      <c r="I13" s="53">
         <v>1.4582852584745199E-3</v>
       </c>
     </row>
@@ -2158,19 +2170,19 @@
       <c r="C14">
         <v>4</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <f>$B14*$C14*$I$13 + $I$14</f>
         <v>1503.9206970584871</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="28">
         <f>$B14*$C14*$I$15 + $I$16</f>
         <v>2207.799534354021</v>
       </c>
-      <c r="G14" s="56"/>
-      <c r="H14" s="36" t="s">
+      <c r="G14" s="57"/>
+      <c r="H14" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="69">
+      <c r="I14" s="54">
         <v>-25.202226131690999</v>
       </c>
     </row>
@@ -2184,21 +2196,21 @@
       <c r="C15">
         <v>4</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <f>$B15*$C15*$I$13 + $I$14</f>
         <v>1503.9206970584871</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="28">
         <f>$B15*$C15*$I$15 + $I$16</f>
         <v>2207.799534354021</v>
       </c>
-      <c r="G15" s="55" t="s">
+      <c r="G15" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="35" t="s">
+      <c r="H15" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="68">
+      <c r="I15" s="53">
         <v>2.1284729450900099E-3</v>
       </c>
     </row>
@@ -2212,290 +2224,290 @@
       <c r="C16" s="5">
         <v>4</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="19">
         <f>$B16*$C16*$I$13 + $I$14</f>
         <v>1503.9206970584871</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="29">
         <f>$B16*$C16*$I$15 + $I$16</f>
         <v>2207.799534354021</v>
       </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="36" t="s">
+      <c r="G16" s="57"/>
+      <c r="H16" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="I16" s="69">
+      <c r="I16" s="54">
         <v>-24.066112516681098</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
-      <c r="B20" s="47" t="s">
+      <c r="A20" s="40"/>
+      <c r="B20" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="40" t="s">
+      <c r="E20" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="40" t="s">
+      <c r="F20" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="40" t="s">
+      <c r="G20" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="40" t="s">
+      <c r="H20" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="41" t="s">
+      <c r="I20" s="39" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="48">
-        <v>0</v>
-      </c>
-      <c r="C21" s="51">
+      <c r="B21" s="46">
+        <v>0</v>
+      </c>
+      <c r="C21" s="49">
         <f>D14</f>
         <v>1503.9206970584871</v>
       </c>
-      <c r="D21" s="51">
-        <v>0</v>
-      </c>
-      <c r="E21" s="49">
-        <v>0</v>
-      </c>
-      <c r="F21" s="51">
+      <c r="D21" s="49">
+        <v>0</v>
+      </c>
+      <c r="E21" s="47">
+        <v>0</v>
+      </c>
+      <c r="F21" s="49">
         <f>D15</f>
         <v>1503.9206970584871</v>
       </c>
-      <c r="G21" s="49">
-        <v>0</v>
-      </c>
-      <c r="H21" s="49">
-        <v>0</v>
-      </c>
-      <c r="I21" s="50">
+      <c r="G21" s="47">
+        <v>0</v>
+      </c>
+      <c r="H21" s="47">
+        <v>0</v>
+      </c>
+      <c r="I21" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="35">
-        <v>0</v>
-      </c>
-      <c r="C22" s="43">
-        <v>0</v>
-      </c>
-      <c r="D22" s="52">
+      <c r="B22" s="33">
+        <v>0</v>
+      </c>
+      <c r="C22" s="41">
+        <v>0</v>
+      </c>
+      <c r="D22" s="50">
         <f>D14</f>
         <v>1503.9206970584871</v>
       </c>
-      <c r="E22" s="52">
+      <c r="E22" s="50">
         <f>D14</f>
         <v>1503.9206970584871</v>
       </c>
-      <c r="F22" s="52">
-        <v>0</v>
-      </c>
-      <c r="G22" s="43">
-        <v>0</v>
-      </c>
-      <c r="H22" s="43">
-        <v>0</v>
-      </c>
-      <c r="I22" s="44">
+      <c r="F22" s="50">
+        <v>0</v>
+      </c>
+      <c r="G22" s="41">
+        <v>0</v>
+      </c>
+      <c r="H22" s="41">
+        <v>0</v>
+      </c>
+      <c r="I22" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="35">
-        <v>0</v>
-      </c>
-      <c r="C23" s="43">
-        <v>0</v>
-      </c>
-      <c r="D23" s="43">
-        <v>0</v>
-      </c>
-      <c r="E23" s="52">
+      <c r="B23" s="33">
+        <v>0</v>
+      </c>
+      <c r="C23" s="41">
+        <v>0</v>
+      </c>
+      <c r="D23" s="41">
+        <v>0</v>
+      </c>
+      <c r="E23" s="50">
         <f>D16</f>
         <v>1503.9206970584871</v>
       </c>
-      <c r="F23" s="52">
+      <c r="F23" s="50">
         <f>D16</f>
         <v>1503.9206970584871</v>
       </c>
-      <c r="G23" s="52">
+      <c r="G23" s="50">
         <f>D14</f>
         <v>1503.9206970584871</v>
       </c>
-      <c r="H23" s="43">
-        <v>0</v>
-      </c>
-      <c r="I23" s="44">
+      <c r="H23" s="41">
+        <v>0</v>
+      </c>
+      <c r="I23" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="35">
-        <v>0</v>
-      </c>
-      <c r="C24" s="43">
-        <v>0</v>
-      </c>
-      <c r="D24" s="43">
-        <v>0</v>
-      </c>
-      <c r="E24" s="43">
-        <v>0</v>
-      </c>
-      <c r="F24" s="52">
-        <v>0</v>
-      </c>
-      <c r="G24" s="52">
+      <c r="B24" s="33">
+        <v>0</v>
+      </c>
+      <c r="C24" s="41">
+        <v>0</v>
+      </c>
+      <c r="D24" s="41">
+        <v>0</v>
+      </c>
+      <c r="E24" s="41">
+        <v>0</v>
+      </c>
+      <c r="F24" s="50">
+        <v>0</v>
+      </c>
+      <c r="G24" s="50">
         <f>D16</f>
         <v>1503.9206970584871</v>
       </c>
-      <c r="H24" s="43">
-        <v>0</v>
-      </c>
-      <c r="I24" s="44">
+      <c r="H24" s="41">
+        <v>0</v>
+      </c>
+      <c r="I24" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="35">
-        <v>0</v>
-      </c>
-      <c r="C25" s="43">
-        <v>0</v>
-      </c>
-      <c r="D25" s="43">
-        <v>0</v>
-      </c>
-      <c r="E25" s="43">
-        <v>0</v>
-      </c>
-      <c r="F25" s="43">
-        <v>0</v>
-      </c>
-      <c r="G25" s="52">
+      <c r="B25" s="33">
+        <v>0</v>
+      </c>
+      <c r="C25" s="41">
+        <v>0</v>
+      </c>
+      <c r="D25" s="41">
+        <v>0</v>
+      </c>
+      <c r="E25" s="41">
+        <v>0</v>
+      </c>
+      <c r="F25" s="41">
+        <v>0</v>
+      </c>
+      <c r="G25" s="50">
         <f>D15</f>
         <v>1503.9206970584871</v>
       </c>
-      <c r="H25" s="43">
-        <v>0</v>
-      </c>
-      <c r="I25" s="53">
+      <c r="H25" s="41">
+        <v>0</v>
+      </c>
+      <c r="I25" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="35">
-        <v>0</v>
-      </c>
-      <c r="C26" s="52">
-        <v>0</v>
-      </c>
-      <c r="D26" s="43">
-        <v>0</v>
-      </c>
-      <c r="E26" s="43">
-        <v>0</v>
-      </c>
-      <c r="F26" s="43">
-        <v>0</v>
-      </c>
-      <c r="G26" s="43">
-        <v>0</v>
-      </c>
-      <c r="H26" s="43">
-        <v>0</v>
-      </c>
-      <c r="I26" s="53">
+      <c r="B26" s="33">
+        <v>0</v>
+      </c>
+      <c r="C26" s="50">
+        <v>0</v>
+      </c>
+      <c r="D26" s="41">
+        <v>0</v>
+      </c>
+      <c r="E26" s="41">
+        <v>0</v>
+      </c>
+      <c r="F26" s="41">
+        <v>0</v>
+      </c>
+      <c r="G26" s="41">
+        <v>0</v>
+      </c>
+      <c r="H26" s="41">
+        <v>0</v>
+      </c>
+      <c r="I26" s="51">
         <f>D16</f>
         <v>1503.9206970584871</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="54">
-        <v>0</v>
-      </c>
-      <c r="C27" s="52">
+      <c r="B27" s="52">
+        <v>0</v>
+      </c>
+      <c r="C27" s="50">
         <f>D13</f>
         <v>4562.1665434388442</v>
       </c>
-      <c r="D27" s="52">
+      <c r="D27" s="50">
         <f>D16</f>
         <v>1503.9206970584871</v>
       </c>
-      <c r="E27" s="52">
-        <v>0</v>
-      </c>
-      <c r="F27" s="43">
-        <v>0</v>
-      </c>
-      <c r="G27" s="52">
-        <v>0</v>
-      </c>
-      <c r="H27" s="43">
-        <v>0</v>
-      </c>
-      <c r="I27" s="44">
+      <c r="E27" s="50">
+        <v>0</v>
+      </c>
+      <c r="F27" s="41">
+        <v>0</v>
+      </c>
+      <c r="G27" s="50">
+        <v>0</v>
+      </c>
+      <c r="H27" s="41">
+        <v>0</v>
+      </c>
+      <c r="I27" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="36">
-        <v>0</v>
-      </c>
-      <c r="C28" s="45">
-        <v>0</v>
-      </c>
-      <c r="D28" s="45">
-        <v>0</v>
-      </c>
-      <c r="E28" s="45">
-        <v>0</v>
-      </c>
-      <c r="F28" s="45">
-        <v>0</v>
-      </c>
-      <c r="G28" s="45">
-        <v>0</v>
-      </c>
-      <c r="H28" s="45">
-        <v>0</v>
-      </c>
-      <c r="I28" s="46">
+      <c r="B28" s="34">
+        <v>0</v>
+      </c>
+      <c r="C28" s="43">
+        <v>0</v>
+      </c>
+      <c r="D28" s="43">
+        <v>0</v>
+      </c>
+      <c r="E28" s="43">
+        <v>0</v>
+      </c>
+      <c r="F28" s="43">
+        <v>0</v>
+      </c>
+      <c r="G28" s="43">
+        <v>0</v>
+      </c>
+      <c r="H28" s="43">
+        <v>0</v>
+      </c>
+      <c r="I28" s="44">
         <v>0</v>
       </c>
     </row>

--- a/TaskgraphsEdgeDetect/hwsw-partitioning/TaskGraph-Attributes.xlsx
+++ b/TaskgraphsEdgeDetect/hwsw-partitioning/TaskGraph-Attributes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago\Dev\Experiments\TaskgraphsEdgeDetect\hwsw-partitioning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8022F8-1986-42D0-B964-D4B0B0697A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234773DF-E6E7-4D50-9975-FE81935B6089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="V0" sheetId="1" r:id="rId1"/>
@@ -37,14 +37,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="53">
   <si>
     <t>latency</t>
   </si>
   <si>
-    <t>fmax</t>
-  </si>
-  <si>
     <t>%FF</t>
   </si>
   <si>
@@ -166,12 +163,48 @@
   </si>
   <si>
     <t>convolve2d (3)</t>
+  </si>
+  <si>
+    <t>original latency: 273.972602739726</t>
+  </si>
+  <si>
+    <t>Frequency (MHz)</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>HW/SW Partitioning Results</t>
+  </si>
+  <si>
+    <t>HW</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>Total exec time (us):</t>
+  </si>
+  <si>
+    <t>Total comm. time (us):</t>
+  </si>
+  <si>
+    <t>Speedup vs. CPU-only:</t>
+  </si>
+  <si>
+    <t>Speedup vs. FPGA-only:</t>
+  </si>
+  <si>
+    <t>% of time spent in comm.:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0\x"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -189,7 +222,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,6 +265,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -414,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -548,6 +599,53 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -571,15 +669,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>582038</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>515363</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -608,7 +706,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11725275" y="76200"/>
+          <a:off x="12277725" y="3590925"/>
           <a:ext cx="4039613" cy="6572250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -625,16 +723,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -663,7 +761,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11896725" y="47625"/>
+          <a:off x="11458575" y="3067050"/>
           <a:ext cx="4686300" cy="6200775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -939,15 +1037,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="16.140625" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
@@ -956,20 +1054,21 @@
     <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="D1" s="61" t="s">
         <v>20</v>
-      </c>
-      <c r="D1" s="61" t="s">
-        <v>21</v>
       </c>
       <c r="E1" s="61"/>
       <c r="F1" s="61"/>
@@ -977,53 +1076,63 @@
       <c r="H1" s="61"/>
       <c r="I1" s="61"/>
       <c r="J1" s="62"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M1" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="79"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="64"/>
       <c r="B2" s="68"/>
       <c r="C2" s="66"/>
       <c r="D2" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="H2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="I2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="J2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="M2" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="81" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="B3" s="2">
         <v>143601</v>
       </c>
       <c r="C3" s="8">
         <f>$D3 * 1000000</f>
-        <v>2871.1593500000004</v>
+        <v>7866.1900000000005</v>
       </c>
       <c r="D3" s="2">
         <f>$E3/($F3*1000000)</f>
-        <v>2.8711593500000002E-3</v>
+        <v>7.8661900000000003E-3</v>
       </c>
       <c r="E3" s="2">
         <v>786619</v>
       </c>
       <c r="F3" s="2">
-        <v>273.97260273972603</v>
+        <v>100</v>
       </c>
       <c r="G3" s="11">
         <v>1.3271672504378201E-2</v>
@@ -1037,27 +1146,33 @@
       <c r="J3" s="12">
         <v>5.5555555555555497E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M3" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="82" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>14467</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" ref="C4:C9" si="0">$D4 * 1000000</f>
-        <v>8546.0698500000017</v>
-      </c>
-      <c r="D4" s="69">
+        <v>23413.89</v>
+      </c>
+      <c r="D4">
         <f t="shared" ref="D4:D9" si="1">$E4/($F4*1000000)</f>
-        <v>8.5460698500000008E-3</v>
+        <v>2.341389E-2</v>
       </c>
       <c r="E4">
         <v>2341389</v>
       </c>
       <c r="F4">
-        <v>273.97260273972603</v>
+        <v>100</v>
       </c>
       <c r="G4" s="30">
         <v>2.6514156450671299E-2</v>
@@ -1071,27 +1186,33 @@
       <c r="J4" s="13">
         <v>1.0714285714285701E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M4" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="84" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>245034</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="0"/>
-        <v>1914.1877500000003</v>
-      </c>
-      <c r="D5" s="69">
+        <v>5244.35</v>
+      </c>
+      <c r="D5">
         <f t="shared" si="1"/>
-        <v>1.9141877500000002E-3</v>
+        <v>5.2443500000000001E-3</v>
       </c>
       <c r="E5">
         <v>524435</v>
       </c>
       <c r="F5">
-        <v>273.97260273972603</v>
+        <v>100</v>
       </c>
       <c r="G5" s="30">
         <v>7.8309252772912993E-2</v>
@@ -1105,27 +1226,33 @@
       <c r="J5" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M5" s="76" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="84" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" si="0"/>
-        <v>0.2555</v>
-      </c>
-      <c r="D6" s="69">
+        <v>0.7</v>
+      </c>
+      <c r="D6">
         <f t="shared" si="1"/>
-        <v>2.5550000000000003E-7</v>
+        <v>6.9999999999999997E-7</v>
       </c>
       <c r="E6">
         <v>70</v>
       </c>
       <c r="F6">
-        <v>273.97260273972603</v>
+        <v>100</v>
       </c>
       <c r="G6" s="30">
         <v>3.3785755983654401E-3</v>
@@ -1139,27 +1266,33 @@
       <c r="J6" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M6" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="84" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>0.2555</v>
-      </c>
-      <c r="D7" s="69">
+        <v>0.7</v>
+      </c>
+      <c r="D7">
         <f t="shared" si="1"/>
-        <v>2.5550000000000003E-7</v>
+        <v>6.9999999999999997E-7</v>
       </c>
       <c r="E7">
         <v>70</v>
       </c>
       <c r="F7">
-        <v>273.97260273972603</v>
+        <v>100</v>
       </c>
       <c r="G7" s="30">
         <v>3.3785755983654401E-3</v>
@@ -1173,27 +1306,33 @@
       <c r="J7" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M7" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" s="83" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
       </c>
       <c r="C8" s="19">
         <f t="shared" si="0"/>
-        <v>0.2555</v>
-      </c>
-      <c r="D8" s="69">
+        <v>0.7</v>
+      </c>
+      <c r="D8">
         <f t="shared" si="1"/>
-        <v>2.5550000000000003E-7</v>
+        <v>6.9999999999999997E-7</v>
       </c>
       <c r="E8" s="5">
         <v>70</v>
       </c>
-      <c r="F8" s="5">
-        <v>273.97260273972603</v>
+      <c r="F8">
+        <v>100</v>
       </c>
       <c r="G8" s="14">
         <v>3.3785755983654401E-3</v>
@@ -1207,27 +1346,33 @@
       <c r="J8" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M8" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="84" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="7">
         <v>435372</v>
       </c>
       <c r="C9" s="10">
         <f t="shared" si="0"/>
-        <v>534535.19634999998</v>
+        <v>1464479.99</v>
       </c>
       <c r="D9" s="7">
         <f t="shared" si="1"/>
-        <v>0.53453519635000002</v>
+        <v>1.4644799900000001</v>
       </c>
       <c r="E9" s="7">
         <v>146447999</v>
       </c>
       <c r="F9" s="7">
-        <v>273.97260273972603</v>
+        <v>100</v>
       </c>
       <c r="G9" s="31">
         <v>0.11206217162872099</v>
@@ -1241,32 +1386,63 @@
       <c r="J9" s="32">
         <v>1.6269841269841202E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M9" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="84" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" s="84" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M11" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11" s="84" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>13</v>
-      </c>
       <c r="C12" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="26" t="s">
-        <v>30</v>
-      </c>
       <c r="G12" s="58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12" s="59"/>
       <c r="I12" s="60"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M12" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="N12" s="85" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2">
         <v>786432</v>
@@ -1274,27 +1450,33 @@
       <c r="C13" s="2">
         <v>4</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="69">
         <f>$B13*$C13*$I$13 + $I$14</f>
-        <v>4562.1665434388442</v>
-      </c>
-      <c r="E13" s="27">
+        <v>4587.3687695705348</v>
+      </c>
+      <c r="E13" s="70">
         <f>$B13*$C13*$I$15 + $I$16</f>
-        <v>6671.5308280954259</v>
+        <v>6695.5969406121067</v>
       </c>
       <c r="G13" s="56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="53">
         <v>1.4582852584745199E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M13" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="N13" s="88">
+        <v>71601</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14">
         <v>262144</v>
@@ -1302,25 +1484,32 @@
       <c r="C14">
         <v>4</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="71">
         <f>$B14*$C14*$I$13 + $I$14</f>
-        <v>1503.9206970584871</v>
-      </c>
-      <c r="E14" s="28">
+        <v>1529.1229231901782</v>
+      </c>
+      <c r="E14" s="72">
         <f>$B14*$C14*$I$15 + $I$16</f>
-        <v>2207.799534354021</v>
+        <v>2231.8656468707022</v>
       </c>
       <c r="G14" s="57"/>
       <c r="H14" s="34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I14" s="54">
-        <v>-25.202226131690999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J14" s="96"/>
+      <c r="M14" s="89" t="s">
+        <v>49</v>
+      </c>
+      <c r="N14" s="90">
+        <v>15090</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>262144</v>
@@ -1328,27 +1517,35 @@
       <c r="C15">
         <v>4</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="71">
         <f>$B15*$C15*$I$13 + $I$14</f>
-        <v>1503.9206970584871</v>
-      </c>
-      <c r="E15" s="28">
+        <v>1529.1229231901782</v>
+      </c>
+      <c r="E15" s="72">
         <f>$B15*$C15*$I$15 + $I$16</f>
-        <v>2207.799534354021</v>
+        <v>2231.8656468707022</v>
       </c>
       <c r="G15" s="56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I15" s="55">
         <v>2.1284729450900099E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J15" s="96"/>
+      <c r="M15" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="N15" s="15">
+        <f>$N14/$N13</f>
+        <v>0.21075124649097079</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <v>9</v>
@@ -1356,25 +1553,33 @@
       <c r="C16">
         <v>4</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="71">
         <f>$B16*$C16*$I$13 + $I$14</f>
-        <v>-25.149727862385916</v>
-      </c>
-      <c r="E16" s="28">
+        <v>5.2498269305082716E-2</v>
+      </c>
+      <c r="E16" s="72">
         <f>$B16*$C16*$I$15 + $I$16</f>
-        <v>-23.989487490657858</v>
+        <v>7.6625026023240353E-2</v>
       </c>
       <c r="G16" s="57"/>
       <c r="H16" s="34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I16" s="54">
-        <v>-24.066112516681098</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J16" s="96"/>
+      <c r="M16" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="N16" s="92">
+        <f>$B$9 / $N$13</f>
+        <v>6.0805296015418779</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="5">
         <v>262144</v>
@@ -1382,62 +1587,69 @@
       <c r="C17" s="5">
         <v>4</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="73">
         <f>$B17*$C17*$I$13 + $I$14</f>
-        <v>1503.9206970584871</v>
-      </c>
-      <c r="E17" s="29">
+        <v>1529.1229231901782</v>
+      </c>
+      <c r="E17" s="74">
         <f>$B17*$C17*$I$15 + $I$16</f>
-        <v>2207.799534354021</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2231.8656468707022</v>
+      </c>
+      <c r="M17" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="N17" s="93">
+        <f>$C$9 / N14</f>
+        <v>97.049701126573893</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="E20" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="38" t="s">
-        <v>42</v>
-      </c>
       <c r="F20" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="38" t="s">
-        <v>9</v>
-      </c>
       <c r="H20" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="I20" s="38" t="s">
-        <v>32</v>
-      </c>
       <c r="J20" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K20" s="39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" s="46">
         <v>0</v>
       </c>
       <c r="C21" s="49">
         <f>D14</f>
-        <v>1503.9206970584871</v>
+        <v>1529.1229231901782</v>
       </c>
       <c r="D21" s="49">
         <f>D14</f>
-        <v>1503.9206970584871</v>
+        <v>1529.1229231901782</v>
       </c>
       <c r="E21" s="47">
         <v>0</v>
@@ -1461,9 +1673,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="33">
         <v>0</v>
@@ -1473,15 +1685,15 @@
       </c>
       <c r="D22" s="50">
         <f>D17</f>
-        <v>1503.9206970584871</v>
+        <v>1529.1229231901782</v>
       </c>
       <c r="E22" s="50">
         <f>D17</f>
-        <v>1503.9206970584871</v>
+        <v>1529.1229231901782</v>
       </c>
       <c r="F22" s="50">
         <f>D17</f>
-        <v>1503.9206970584871</v>
+        <v>1529.1229231901782</v>
       </c>
       <c r="G22" s="41">
         <v>0</v>
@@ -1499,9 +1711,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="33">
         <v>0</v>
@@ -1517,7 +1729,7 @@
       </c>
       <c r="F23" s="50">
         <f>D14</f>
-        <v>1503.9206970584871</v>
+        <v>1529.1229231901782</v>
       </c>
       <c r="G23" s="41">
         <v>0</v>
@@ -1535,9 +1747,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" s="33">
         <v>0</v>
@@ -1553,7 +1765,7 @@
       </c>
       <c r="F24" s="50">
         <f>D15</f>
-        <v>1503.9206970584871</v>
+        <v>1529.1229231901782</v>
       </c>
       <c r="G24" s="41">
         <v>0</v>
@@ -1571,9 +1783,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25" s="33">
         <v>0</v>
@@ -1604,19 +1816,19 @@
       </c>
       <c r="K25" s="51">
         <f>D17</f>
-        <v>1503.9206970584871</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1529.1229231901782</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B26" s="33">
         <v>0</v>
       </c>
       <c r="C26" s="50">
         <f>D16</f>
-        <v>-25.149727862385916</v>
+        <v>5.2498269305082716E-2</v>
       </c>
       <c r="D26" s="41">
         <v>0</v>
@@ -1632,7 +1844,7 @@
       </c>
       <c r="H26" s="50">
         <f>D16</f>
-        <v>-25.149727862385916</v>
+        <v>5.2498269305082716E-2</v>
       </c>
       <c r="I26" s="41">
         <v>0</v>
@@ -1644,9 +1856,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="33">
         <v>0</v>
@@ -1656,7 +1868,7 @@
       </c>
       <c r="D27" s="50">
         <f>D16</f>
-        <v>-25.149727862385916</v>
+        <v>5.2498269305082716E-2</v>
       </c>
       <c r="E27" s="41">
         <v>0</v>
@@ -1672,7 +1884,7 @@
       </c>
       <c r="I27" s="50">
         <f>D16</f>
-        <v>-25.149727862385916</v>
+        <v>5.2498269305082716E-2</v>
       </c>
       <c r="J27" s="41">
         <v>0</v>
@@ -1681,9 +1893,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" s="33">
         <v>0</v>
@@ -1696,7 +1908,7 @@
       </c>
       <c r="E28" s="50">
         <f>D16</f>
-        <v>-25.149727862385916</v>
+        <v>5.2498269305082716E-2</v>
       </c>
       <c r="F28" s="41">
         <v>0</v>
@@ -1717,31 +1929,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="52">
         <f>D13+D14</f>
-        <v>6066.0872404973315</v>
+        <v>6116.4916927607128</v>
       </c>
       <c r="C29" s="50">
         <f>D17</f>
-        <v>1503.9206970584871</v>
+        <v>1529.1229231901782</v>
       </c>
       <c r="D29" s="41">
         <v>0</v>
       </c>
       <c r="E29" s="50">
         <f>D15</f>
-        <v>1503.9206970584871</v>
+        <v>1529.1229231901782</v>
       </c>
       <c r="F29" s="41">
         <v>0</v>
       </c>
       <c r="G29" s="50">
         <f>D16</f>
-        <v>-25.149727862385916</v>
+        <v>5.2498269305082716E-2</v>
       </c>
       <c r="H29" s="41">
         <v>0</v>
@@ -1756,9 +1968,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="34">
         <v>0</v>
@@ -1792,7 +2004,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="G12:I12"/>
@@ -1809,10 +2022,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F280CF7-3598-485E-A72B-033C2161085F}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1826,20 +2039,21 @@
     <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="D1" s="61" t="s">
         <v>20</v>
-      </c>
-      <c r="D1" s="61" t="s">
-        <v>21</v>
       </c>
       <c r="E1" s="61"/>
       <c r="F1" s="61"/>
@@ -1847,85 +2061,101 @@
       <c r="H1" s="61"/>
       <c r="I1" s="61"/>
       <c r="J1" s="62"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M1" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="79"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="64"/>
       <c r="B2" s="68"/>
       <c r="C2" s="66"/>
       <c r="D2" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="H2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="I2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="J2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="M2" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="81" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="91" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="B4">
         <v>149827</v>
       </c>
       <c r="C4" s="9">
         <f>$D4 * 1000000</f>
-        <v>2871.1593500000004</v>
+        <v>7866.1900000000005</v>
       </c>
       <c r="D4">
         <f>$E4/($F4*1000000)</f>
-        <v>2.8711593500000002E-3</v>
+        <v>7.8661900000000003E-3</v>
       </c>
       <c r="E4">
         <v>786619</v>
       </c>
       <c r="F4">
-        <v>273.97260273972603</v>
+        <v>100</v>
       </c>
       <c r="G4" s="30">
         <v>1.3271672504378201E-2</v>
@@ -1939,27 +2169,33 @@
       <c r="J4" s="13">
         <v>5.5555555555555497E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M4" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="83" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>17706</v>
       </c>
       <c r="C5" s="9">
         <f>$D5 * 1000000</f>
-        <v>8544.8069500000001</v>
+        <v>23410.43</v>
       </c>
       <c r="D5">
         <f t="shared" ref="D5:D9" si="0">$E5/($F5*1000000)</f>
-        <v>8.5448069500000008E-3</v>
+        <v>2.3410429999999999E-2</v>
       </c>
       <c r="E5">
         <v>2341043</v>
       </c>
       <c r="F5">
-        <v>273.97260273972603</v>
+        <v>100</v>
       </c>
       <c r="G5" s="30">
         <v>3.3986427320490298E-3</v>
@@ -1973,27 +2209,33 @@
       <c r="J5" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M5" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="83" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>17706</v>
       </c>
       <c r="C6" s="9">
         <f>$D6 * 1000000</f>
-        <v>5696.7156000000004</v>
+        <v>15607.44</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>5.6967156000000008E-3</v>
+        <v>1.560744E-2</v>
       </c>
       <c r="E6">
         <v>1560744</v>
       </c>
       <c r="F6">
-        <v>273.97260273972603</v>
+        <v>100</v>
       </c>
       <c r="G6" s="30">
         <v>1.35781523642732E-2</v>
@@ -2007,27 +2249,33 @@
       <c r="J6" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M6" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="83" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>17706</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" ref="C7:C9" si="1">$D7 * 1000000</f>
-        <v>5696.7083000000002</v>
+        <v>15607.42</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>5.6967083000000005E-3</v>
+        <v>1.560742E-2</v>
       </c>
       <c r="E7">
         <v>1560742</v>
       </c>
       <c r="F7">
-        <v>273.97260273972603</v>
+        <v>100</v>
       </c>
       <c r="G7" s="30">
         <v>3.0137186223000499E-3</v>
@@ -2041,27 +2289,33 @@
       <c r="J7" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M7" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="83" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="5">
         <v>270074</v>
       </c>
       <c r="C8" s="19">
         <f t="shared" si="1"/>
-        <v>1914.1877500000003</v>
+        <v>5244.35</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>1.9141877500000002E-3</v>
+        <v>5.2443500000000001E-3</v>
       </c>
       <c r="E8" s="5">
         <v>524435</v>
       </c>
-      <c r="F8" s="5">
-        <v>273.97260273972603</v>
+      <c r="F8">
+        <v>100</v>
       </c>
       <c r="G8" s="14">
         <v>7.8309252772912993E-2</v>
@@ -2075,27 +2329,33 @@
       <c r="J8" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M8" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="83" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="7">
         <v>475604</v>
       </c>
       <c r="C9" s="10">
         <f t="shared" si="1"/>
-        <v>17127.559300000001</v>
+        <v>46924.82</v>
       </c>
       <c r="D9" s="7">
         <f t="shared" si="0"/>
-        <v>1.7127559300000001E-2</v>
+        <v>4.6924819999999999E-2</v>
       </c>
       <c r="E9" s="16">
         <v>4692482</v>
       </c>
       <c r="F9" s="16">
-        <v>273.97260273972603</v>
+        <v>100</v>
       </c>
       <c r="G9" s="20">
         <v>6.9120329830706304E-2</v>
@@ -2109,32 +2369,63 @@
       <c r="J9" s="21">
         <v>1.03174603174603E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M9" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="N9" s="84" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" s="84" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M11" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="N11" s="88">
+        <v>35302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>13</v>
-      </c>
       <c r="C12" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="26" t="s">
-        <v>30</v>
-      </c>
       <c r="G12" s="58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12" s="59"/>
       <c r="I12" s="60"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M12" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="N12" s="94">
+        <v>10578</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2">
         <v>786432</v>
@@ -2144,25 +2435,32 @@
       </c>
       <c r="D13" s="8">
         <f>$B13*$C13*$I$13 + $I$14</f>
-        <v>4562.1665434388442</v>
+        <v>4587.3687695705348</v>
       </c>
       <c r="E13" s="27">
         <f>$B13*$C13*$I$15 + $I$16</f>
-        <v>6671.5308280954259</v>
+        <v>6695.5969406121067</v>
       </c>
       <c r="G13" s="56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="53">
         <v>1.4582852584745199E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M13" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="N13" s="15">
+        <f>$N12/$N11</f>
+        <v>0.29964307971219761</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14">
         <v>262144</v>
@@ -2172,23 +2470,30 @@
       </c>
       <c r="D14" s="9">
         <f>$B14*$C14*$I$13 + $I$14</f>
-        <v>1503.9206970584871</v>
+        <v>1529.1229231901782</v>
       </c>
       <c r="E14" s="28">
         <f>$B14*$C14*$I$15 + $I$16</f>
-        <v>2207.799534354021</v>
+        <v>2231.8656468707022</v>
       </c>
       <c r="G14" s="57"/>
       <c r="H14" s="34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I14" s="54">
-        <v>-25.202226131690999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M14" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="N14" s="95">
+        <f>$B$9 / $N$11</f>
+        <v>13.472437822219705</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>262144</v>
@@ -2198,25 +2503,32 @@
       </c>
       <c r="D15" s="9">
         <f>$B15*$C15*$I$13 + $I$14</f>
-        <v>1503.9206970584871</v>
+        <v>1529.1229231901782</v>
       </c>
       <c r="E15" s="28">
         <f>$B15*$C15*$I$15 + $I$16</f>
-        <v>2207.799534354021</v>
+        <v>2231.8656468707022</v>
       </c>
       <c r="G15" s="56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I15" s="53">
         <v>2.1284729450900099E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M15" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="N15" s="93">
+        <f>$C$9 / N12</f>
+        <v>4.4360767630932125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="5">
         <v>262144</v>
@@ -2226,57 +2538,57 @@
       </c>
       <c r="D16" s="19">
         <f>$B16*$C16*$I$13 + $I$14</f>
-        <v>1503.9206970584871</v>
+        <v>1529.1229231901782</v>
       </c>
       <c r="E16" s="29">
         <f>$B16*$C16*$I$15 + $I$16</f>
-        <v>2207.799534354021</v>
+        <v>2231.8656468707022</v>
       </c>
       <c r="G16" s="57"/>
       <c r="H16" s="34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I16" s="54">
-        <v>-24.066112516681098</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="38" t="s">
+      <c r="F20" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="38" t="s">
-        <v>16</v>
-      </c>
       <c r="G20" s="38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H20" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="39" t="s">
         <v>38</v>
-      </c>
-      <c r="I20" s="39" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" s="46">
         <v>0</v>
       </c>
       <c r="C21" s="49">
         <f>D14</f>
-        <v>1503.9206970584871</v>
+        <v>1529.1229231901782</v>
       </c>
       <c r="D21" s="49">
         <v>0</v>
@@ -2286,7 +2598,7 @@
       </c>
       <c r="F21" s="49">
         <f>D15</f>
-        <v>1503.9206970584871</v>
+        <v>1529.1229231901782</v>
       </c>
       <c r="G21" s="47">
         <v>0</v>
@@ -2300,7 +2612,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" s="33">
         <v>0</v>
@@ -2310,11 +2622,11 @@
       </c>
       <c r="D22" s="50">
         <f>D14</f>
-        <v>1503.9206970584871</v>
+        <v>1529.1229231901782</v>
       </c>
       <c r="E22" s="50">
         <f>D14</f>
-        <v>1503.9206970584871</v>
+        <v>1529.1229231901782</v>
       </c>
       <c r="F22" s="50">
         <v>0</v>
@@ -2331,7 +2643,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" s="33">
         <v>0</v>
@@ -2344,15 +2656,15 @@
       </c>
       <c r="E23" s="50">
         <f>D16</f>
-        <v>1503.9206970584871</v>
+        <v>1529.1229231901782</v>
       </c>
       <c r="F23" s="50">
         <f>D16</f>
-        <v>1503.9206970584871</v>
+        <v>1529.1229231901782</v>
       </c>
       <c r="G23" s="50">
         <f>D14</f>
-        <v>1503.9206970584871</v>
+        <v>1529.1229231901782</v>
       </c>
       <c r="H23" s="41">
         <v>0</v>
@@ -2363,7 +2675,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" s="33">
         <v>0</v>
@@ -2382,7 +2694,7 @@
       </c>
       <c r="G24" s="50">
         <f>D16</f>
-        <v>1503.9206970584871</v>
+        <v>1529.1229231901782</v>
       </c>
       <c r="H24" s="41">
         <v>0</v>
@@ -2393,7 +2705,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" s="33">
         <v>0</v>
@@ -2412,7 +2724,7 @@
       </c>
       <c r="G25" s="50">
         <f>D15</f>
-        <v>1503.9206970584871</v>
+        <v>1529.1229231901782</v>
       </c>
       <c r="H25" s="41">
         <v>0</v>
@@ -2423,7 +2735,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26" s="33">
         <v>0</v>
@@ -2448,23 +2760,23 @@
       </c>
       <c r="I26" s="51">
         <f>D16</f>
-        <v>1503.9206970584871</v>
+        <v>1529.1229231901782</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" s="52">
         <v>0</v>
       </c>
       <c r="C27" s="50">
         <f>D13</f>
-        <v>4562.1665434388442</v>
+        <v>4587.3687695705348</v>
       </c>
       <c r="D27" s="50">
         <f>D16</f>
-        <v>1503.9206970584871</v>
+        <v>1529.1229231901782</v>
       </c>
       <c r="E27" s="50">
         <v>0</v>
@@ -2484,7 +2796,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" s="34">
         <v>0</v>
@@ -2512,7 +2824,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="A1:A2"/>

--- a/TaskgraphsEdgeDetect/hwsw-partitioning/TaskGraph-Attributes.xlsx
+++ b/TaskgraphsEdgeDetect/hwsw-partitioning/TaskGraph-Attributes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago\Dev\Experiments\TaskgraphsEdgeDetect\hwsw-partitioning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234773DF-E6E7-4D50-9975-FE81935B6089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE444BE9-5FD9-4801-8DE6-E6AA1878A73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -465,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -560,60 +560,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -628,25 +583,66 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1058,33 +1054,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="62"/>
-      <c r="M1" s="78" t="s">
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="88"/>
+      <c r="M1" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="79"/>
+      <c r="N1" s="81"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="92"/>
       <c r="D2" s="22" t="s">
         <v>21</v>
       </c>
@@ -1106,10 +1102,10 @@
       <c r="J2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="80" t="s">
+      <c r="M2" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="81" t="s">
+      <c r="N2" s="66" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1146,10 +1142,10 @@
       <c r="J3" s="12">
         <v>5.5555555555555497E-3</v>
       </c>
-      <c r="M3" s="75" t="s">
+      <c r="M3" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="82" t="s">
+      <c r="N3" s="67" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1186,10 +1182,10 @@
       <c r="J4" s="13">
         <v>1.0714285714285701E-2</v>
       </c>
-      <c r="M4" s="76" t="s">
+      <c r="M4" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="69" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1226,10 +1222,10 @@
       <c r="J5" s="13">
         <v>0</v>
       </c>
-      <c r="M5" s="76" t="s">
+      <c r="M5" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="84" t="s">
+      <c r="N5" s="69" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1266,10 +1262,10 @@
       <c r="J6" s="13">
         <v>0</v>
       </c>
-      <c r="M6" s="76" t="s">
+      <c r="M6" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="N6" s="84" t="s">
+      <c r="N6" s="69" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1306,10 +1302,10 @@
       <c r="J7" s="13">
         <v>0</v>
       </c>
-      <c r="M7" s="76" t="s">
+      <c r="M7" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="83" t="s">
+      <c r="N7" s="68" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1346,10 +1342,10 @@
       <c r="J8" s="15">
         <v>0</v>
       </c>
-      <c r="M8" s="76" t="s">
+      <c r="M8" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="84" t="s">
+      <c r="N8" s="69" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1386,10 +1382,10 @@
       <c r="J9" s="32">
         <v>1.6269841269841202E-2</v>
       </c>
-      <c r="M9" s="76" t="s">
+      <c r="M9" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="N9" s="84" t="s">
+      <c r="N9" s="69" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1397,18 +1393,18 @@
       <c r="F10" t="s">
         <v>42</v>
       </c>
-      <c r="M10" s="76" t="s">
+      <c r="M10" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="N10" s="84" t="s">
+      <c r="N10" s="69" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M11" s="76" t="s">
+      <c r="M11" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="N11" s="84" t="s">
+      <c r="N11" s="69" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1428,15 +1424,15 @@
       <c r="E12" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="58" t="s">
+      <c r="G12" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="59"/>
-      <c r="I12" s="60"/>
-      <c r="M12" s="77" t="s">
+      <c r="H12" s="85"/>
+      <c r="I12" s="86"/>
+      <c r="M12" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="N12" s="85" t="s">
+      <c r="N12" s="70" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1450,15 +1446,15 @@
       <c r="C13" s="2">
         <v>4</v>
       </c>
-      <c r="D13" s="69">
+      <c r="D13" s="56">
         <f>$B13*$C13*$I$13 + $I$14</f>
         <v>4587.3687695705348</v>
       </c>
-      <c r="E13" s="70">
+      <c r="E13" s="57">
         <f>$B13*$C13*$I$15 + $I$16</f>
         <v>6695.5969406121067</v>
       </c>
-      <c r="G13" s="56" t="s">
+      <c r="G13" s="82" t="s">
         <v>33</v>
       </c>
       <c r="H13" s="33" t="s">
@@ -1467,10 +1463,10 @@
       <c r="I13" s="53">
         <v>1.4582852584745199E-3</v>
       </c>
-      <c r="M13" s="87" t="s">
+      <c r="M13" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="N13" s="88">
+      <c r="N13" s="73">
         <v>71601</v>
       </c>
     </row>
@@ -1484,26 +1480,25 @@
       <c r="C14">
         <v>4</v>
       </c>
-      <c r="D14" s="71">
+      <c r="D14" s="58">
         <f>$B14*$C14*$I$13 + $I$14</f>
         <v>1529.1229231901782</v>
       </c>
-      <c r="E14" s="72">
+      <c r="E14" s="59">
         <f>$B14*$C14*$I$15 + $I$16</f>
         <v>2231.8656468707022</v>
       </c>
-      <c r="G14" s="57"/>
+      <c r="G14" s="83"/>
       <c r="H14" s="34" t="s">
         <v>35</v>
       </c>
       <c r="I14" s="54">
         <v>0</v>
       </c>
-      <c r="J14" s="96"/>
-      <c r="M14" s="89" t="s">
+      <c r="M14" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="N14" s="90">
+      <c r="N14" s="75">
         <v>15090</v>
       </c>
     </row>
@@ -1517,15 +1512,15 @@
       <c r="C15">
         <v>4</v>
       </c>
-      <c r="D15" s="71">
+      <c r="D15" s="58">
         <f>$B15*$C15*$I$13 + $I$14</f>
         <v>1529.1229231901782</v>
       </c>
-      <c r="E15" s="72">
+      <c r="E15" s="59">
         <f>$B15*$C15*$I$15 + $I$16</f>
         <v>2231.8656468707022</v>
       </c>
-      <c r="G15" s="56" t="s">
+      <c r="G15" s="82" t="s">
         <v>34</v>
       </c>
       <c r="H15" s="33" t="s">
@@ -1534,8 +1529,7 @@
       <c r="I15" s="55">
         <v>2.1284729450900099E-3</v>
       </c>
-      <c r="J15" s="96"/>
-      <c r="M15" s="89" t="s">
+      <c r="M15" s="74" t="s">
         <v>52</v>
       </c>
       <c r="N15" s="15">
@@ -1553,26 +1547,25 @@
       <c r="C16">
         <v>4</v>
       </c>
-      <c r="D16" s="71">
+      <c r="D16" s="58">
         <f>$B16*$C16*$I$13 + $I$14</f>
         <v>5.2498269305082716E-2</v>
       </c>
-      <c r="E16" s="72">
+      <c r="E16" s="59">
         <f>$B16*$C16*$I$15 + $I$16</f>
         <v>7.6625026023240353E-2</v>
       </c>
-      <c r="G16" s="57"/>
+      <c r="G16" s="83"/>
       <c r="H16" s="34" t="s">
         <v>35</v>
       </c>
       <c r="I16" s="54">
         <v>0</v>
       </c>
-      <c r="J16" s="96"/>
-      <c r="M16" s="75" t="s">
+      <c r="M16" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="N16" s="92">
+      <c r="N16" s="76">
         <f>$B$9 / $N$13</f>
         <v>6.0805296015418779</v>
       </c>
@@ -1587,18 +1580,18 @@
       <c r="C17" s="5">
         <v>4</v>
       </c>
-      <c r="D17" s="73">
+      <c r="D17" s="60">
         <f>$B17*$C17*$I$13 + $I$14</f>
         <v>1529.1229231901782</v>
       </c>
-      <c r="E17" s="74">
+      <c r="E17" s="61">
         <f>$B17*$C17*$I$15 + $I$16</f>
         <v>2231.8656468707022</v>
       </c>
-      <c r="M17" s="77" t="s">
+      <c r="M17" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="N17" s="93">
+      <c r="N17" s="77">
         <f>$C$9 / N14</f>
         <v>97.049701126573893</v>
       </c>
@@ -2005,14 +1998,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2025,7 +2018,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2043,33 +2036,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="62"/>
-      <c r="M1" s="78" t="s">
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="88"/>
+      <c r="M1" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="79"/>
+      <c r="N1" s="81"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="92"/>
       <c r="D2" s="22" t="s">
         <v>21</v>
       </c>
@@ -2091,10 +2084,10 @@
       <c r="J2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="80" t="s">
+      <c r="M2" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="81" t="s">
+      <c r="N2" s="66" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2132,8 +2125,8 @@
       <c r="M3" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="91" t="s">
-        <v>47</v>
+      <c r="N3" s="68" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2172,7 +2165,7 @@
       <c r="M4" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="68" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2212,7 +2205,7 @@
       <c r="M5" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="83" t="s">
+      <c r="N5" s="68" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2252,7 +2245,7 @@
       <c r="M6" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="83" t="s">
+      <c r="N6" s="68" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2292,7 +2285,7 @@
       <c r="M7" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="83" t="s">
+      <c r="N7" s="68" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2332,7 +2325,7 @@
       <c r="M8" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="83" t="s">
+      <c r="N8" s="68" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2372,7 +2365,7 @@
       <c r="M9" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="N9" s="84" t="s">
+      <c r="N9" s="69" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2383,16 +2376,16 @@
       <c r="M10" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="N10" s="84" t="s">
+      <c r="N10" s="69" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M11" s="87" t="s">
+      <c r="M11" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="N11" s="88">
-        <v>35302</v>
+      <c r="N11" s="73">
+        <v>32294</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -2411,16 +2404,16 @@
       <c r="E12" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="58" t="s">
+      <c r="G12" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="59"/>
-      <c r="I12" s="60"/>
-      <c r="M12" s="86" t="s">
+      <c r="H12" s="85"/>
+      <c r="I12" s="86"/>
+      <c r="M12" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="N12" s="94">
-        <v>10578</v>
+      <c r="N12" s="78">
+        <v>7570</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -2441,7 +2434,7 @@
         <f>$B13*$C13*$I$15 + $I$16</f>
         <v>6695.5969406121067</v>
       </c>
-      <c r="G13" s="56" t="s">
+      <c r="G13" s="82" t="s">
         <v>33</v>
       </c>
       <c r="H13" s="33" t="s">
@@ -2450,12 +2443,12 @@
       <c r="I13" s="53">
         <v>1.4582852584745199E-3</v>
       </c>
-      <c r="M13" s="89" t="s">
+      <c r="M13" s="74" t="s">
         <v>52</v>
       </c>
       <c r="N13" s="15">
         <f>$N12/$N11</f>
-        <v>0.29964307971219761</v>
+        <v>0.23440886852046819</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -2476,19 +2469,19 @@
         <f>$B14*$C14*$I$15 + $I$16</f>
         <v>2231.8656468707022</v>
       </c>
-      <c r="G14" s="57"/>
+      <c r="G14" s="83"/>
       <c r="H14" s="34" t="s">
         <v>35</v>
       </c>
       <c r="I14" s="54">
         <v>0</v>
       </c>
-      <c r="M14" s="76" t="s">
+      <c r="M14" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="N14" s="95">
+      <c r="N14" s="79">
         <f>$B$9 / $N$11</f>
-        <v>13.472437822219705</v>
+        <v>14.72731776800644</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -2509,7 +2502,7 @@
         <f>$B15*$C15*$I$15 + $I$16</f>
         <v>2231.8656468707022</v>
       </c>
-      <c r="G15" s="56" t="s">
+      <c r="G15" s="82" t="s">
         <v>34</v>
       </c>
       <c r="H15" s="33" t="s">
@@ -2518,12 +2511,12 @@
       <c r="I15" s="53">
         <v>2.1284729450900099E-3</v>
       </c>
-      <c r="M15" s="77" t="s">
+      <c r="M15" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="N15" s="93">
+      <c r="N15" s="77">
         <f>$C$9 / N12</f>
-        <v>4.4360767630932125</v>
+        <v>6.1987873183619548</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -2544,7 +2537,7 @@
         <f>$B16*$C16*$I$15 + $I$16</f>
         <v>2231.8656468707022</v>
       </c>
-      <c r="G16" s="57"/>
+      <c r="G16" s="83"/>
       <c r="H16" s="34" t="s">
         <v>35</v>
       </c>

--- a/TaskgraphsEdgeDetect/hwsw-partitioning/TaskGraph-Attributes.xlsx
+++ b/TaskgraphsEdgeDetect/hwsw-partitioning/TaskGraph-Attributes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago\Dev\Experiments\TaskgraphsEdgeDetect\hwsw-partitioning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE444BE9-5FD9-4801-8DE6-E6AA1878A73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B456ED9C-2ED2-4F20-A56C-B2B701FF2ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -598,6 +598,24 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -624,24 +642,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1036,7 +1036,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:J16"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,33 +1054,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="91" t="s">
+      <c r="C1" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="88"/>
-      <c r="M1" s="80" t="s">
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="94"/>
+      <c r="M1" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="81"/>
+      <c r="N1" s="87"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="90"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="92"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="83"/>
       <c r="D2" s="22" t="s">
         <v>21</v>
       </c>
@@ -1424,11 +1424,11 @@
       <c r="E12" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="84" t="s">
+      <c r="G12" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="85"/>
-      <c r="I12" s="86"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="92"/>
       <c r="M12" s="64" t="s">
         <v>38</v>
       </c>
@@ -1454,7 +1454,7 @@
         <f>$B13*$C13*$I$15 + $I$16</f>
         <v>6695.5969406121067</v>
       </c>
-      <c r="G13" s="82" t="s">
+      <c r="G13" s="88" t="s">
         <v>33</v>
       </c>
       <c r="H13" s="33" t="s">
@@ -1488,7 +1488,7 @@
         <f>$B14*$C14*$I$15 + $I$16</f>
         <v>2231.8656468707022</v>
       </c>
-      <c r="G14" s="83"/>
+      <c r="G14" s="89"/>
       <c r="H14" s="34" t="s">
         <v>35</v>
       </c>
@@ -1520,7 +1520,7 @@
         <f>$B15*$C15*$I$15 + $I$16</f>
         <v>2231.8656468707022</v>
       </c>
-      <c r="G15" s="82" t="s">
+      <c r="G15" s="88" t="s">
         <v>34</v>
       </c>
       <c r="H15" s="33" t="s">
@@ -1555,7 +1555,7 @@
         <f>$B16*$C16*$I$15 + $I$16</f>
         <v>7.6625026023240353E-2</v>
       </c>
-      <c r="G16" s="83"/>
+      <c r="G16" s="89"/>
       <c r="H16" s="34" t="s">
         <v>35</v>
       </c>
@@ -1998,14 +1998,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="D1:J1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="D1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2036,33 +2036,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="91" t="s">
+      <c r="C1" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="88"/>
-      <c r="M1" s="80" t="s">
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="94"/>
+      <c r="M1" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="81"/>
+      <c r="N1" s="87"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="90"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="92"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="83"/>
       <c r="D2" s="22" t="s">
         <v>21</v>
       </c>
@@ -2404,11 +2404,11 @@
       <c r="E12" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="84" t="s">
+      <c r="G12" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="85"/>
-      <c r="I12" s="86"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="92"/>
       <c r="M12" s="71" t="s">
         <v>49</v>
       </c>
@@ -2434,7 +2434,7 @@
         <f>$B13*$C13*$I$15 + $I$16</f>
         <v>6695.5969406121067</v>
       </c>
-      <c r="G13" s="82" t="s">
+      <c r="G13" s="88" t="s">
         <v>33</v>
       </c>
       <c r="H13" s="33" t="s">
@@ -2469,7 +2469,7 @@
         <f>$B14*$C14*$I$15 + $I$16</f>
         <v>2231.8656468707022</v>
       </c>
-      <c r="G14" s="83"/>
+      <c r="G14" s="89"/>
       <c r="H14" s="34" t="s">
         <v>35</v>
       </c>
@@ -2502,7 +2502,7 @@
         <f>$B15*$C15*$I$15 + $I$16</f>
         <v>2231.8656468707022</v>
       </c>
-      <c r="G15" s="82" t="s">
+      <c r="G15" s="88" t="s">
         <v>34</v>
       </c>
       <c r="H15" s="33" t="s">
@@ -2537,7 +2537,7 @@
         <f>$B16*$C16*$I$15 + $I$16</f>
         <v>2231.8656468707022</v>
       </c>
-      <c r="G16" s="83"/>
+      <c r="G16" s="89"/>
       <c r="H16" s="34" t="s">
         <v>35</v>
       </c>

--- a/TaskgraphsEdgeDetect/hwsw-partitioning/TaskGraph-Attributes.xlsx
+++ b/TaskgraphsEdgeDetect/hwsw-partitioning/TaskGraph-Attributes.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago\Dev\Experiments\TaskgraphsEdgeDetect\hwsw-partitioning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B456ED9C-2ED2-4F20-A56C-B2B701FF2ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618E2B96-91A2-4B28-9234-16277E18C727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="V0" sheetId="1" r:id="rId1"/>
     <sheet name="V0CE" sheetId="3" r:id="rId2"/>
+    <sheet name="V2CE" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="54">
   <si>
     <t>latency</t>
   </si>
@@ -196,6 +197,9 @@
   </si>
   <si>
     <t>% of time spent in comm.:</t>
+  </si>
+  <si>
+    <t>convolve2d_fused</t>
   </si>
 </sst>
 </file>
@@ -598,6 +602,27 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -620,27 +645,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1035,7 +1039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1054,33 +1058,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="93" t="s">
+      <c r="D1" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="94"/>
-      <c r="M1" s="86" t="s">
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="86"/>
+      <c r="M1" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="87"/>
+      <c r="N1" s="94"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="81"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="83"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="90"/>
       <c r="D2" s="22" t="s">
         <v>21</v>
       </c>
@@ -1424,11 +1428,11 @@
       <c r="E12" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="90" t="s">
+      <c r="G12" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="91"/>
-      <c r="I12" s="92"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="84"/>
       <c r="M12" s="64" t="s">
         <v>38</v>
       </c>
@@ -1454,7 +1458,7 @@
         <f>$B13*$C13*$I$15 + $I$16</f>
         <v>6695.5969406121067</v>
       </c>
-      <c r="G13" s="88" t="s">
+      <c r="G13" s="80" t="s">
         <v>33</v>
       </c>
       <c r="H13" s="33" t="s">
@@ -1488,7 +1492,7 @@
         <f>$B14*$C14*$I$15 + $I$16</f>
         <v>2231.8656468707022</v>
       </c>
-      <c r="G14" s="89"/>
+      <c r="G14" s="81"/>
       <c r="H14" s="34" t="s">
         <v>35</v>
       </c>
@@ -1520,7 +1524,7 @@
         <f>$B15*$C15*$I$15 + $I$16</f>
         <v>2231.8656468707022</v>
       </c>
-      <c r="G15" s="88" t="s">
+      <c r="G15" s="80" t="s">
         <v>34</v>
       </c>
       <c r="H15" s="33" t="s">
@@ -1555,7 +1559,7 @@
         <f>$B16*$C16*$I$15 + $I$16</f>
         <v>7.6625026023240353E-2</v>
       </c>
-      <c r="G16" s="89"/>
+      <c r="G16" s="81"/>
       <c r="H16" s="34" t="s">
         <v>35</v>
       </c>
@@ -1998,14 +2002,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="G13:G14"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="G13:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2036,33 +2040,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="93" t="s">
+      <c r="D1" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="94"/>
-      <c r="M1" s="86" t="s">
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="86"/>
+      <c r="M1" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="87"/>
+      <c r="N1" s="94"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="81"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="83"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="90"/>
       <c r="D2" s="22" t="s">
         <v>21</v>
       </c>
@@ -2404,11 +2408,11 @@
       <c r="E12" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="90" t="s">
+      <c r="G12" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="91"/>
-      <c r="I12" s="92"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="84"/>
       <c r="M12" s="71" t="s">
         <v>49</v>
       </c>
@@ -2434,7 +2438,7 @@
         <f>$B13*$C13*$I$15 + $I$16</f>
         <v>6695.5969406121067</v>
       </c>
-      <c r="G13" s="88" t="s">
+      <c r="G13" s="80" t="s">
         <v>33</v>
       </c>
       <c r="H13" s="33" t="s">
@@ -2469,7 +2473,7 @@
         <f>$B14*$C14*$I$15 + $I$16</f>
         <v>2231.8656468707022</v>
       </c>
-      <c r="G14" s="89"/>
+      <c r="G14" s="81"/>
       <c r="H14" s="34" t="s">
         <v>35</v>
       </c>
@@ -2502,7 +2506,7 @@
         <f>$B15*$C15*$I$15 + $I$16</f>
         <v>2231.8656468707022</v>
       </c>
-      <c r="G15" s="88" t="s">
+      <c r="G15" s="80" t="s">
         <v>34</v>
       </c>
       <c r="H15" s="33" t="s">
@@ -2537,7 +2541,7 @@
         <f>$B16*$C16*$I$15 + $I$16</f>
         <v>2231.8656468707022</v>
       </c>
-      <c r="G16" s="89"/>
+      <c r="G16" s="81"/>
       <c r="H16" s="34" t="s">
         <v>35</v>
       </c>
@@ -2831,4 +2835,727 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84ADAD97-5710-4528-B171-8F5579DD76F0}">
+  <dimension ref="A1:N26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="89" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="86"/>
+      <c r="M1" s="93" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="94"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="88"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="66" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="68" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>149827</v>
+      </c>
+      <c r="C4" s="9">
+        <f>$D4 * 1000000</f>
+        <v>7866.1900000000005</v>
+      </c>
+      <c r="D4">
+        <f>$E4/($F4*1000000)</f>
+        <v>7.8661900000000003E-3</v>
+      </c>
+      <c r="E4">
+        <v>786619</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4" s="30">
+        <v>1.3271672504378201E-2</v>
+      </c>
+      <c r="H4" s="30">
+        <v>5.0492556917688197E-2</v>
+      </c>
+      <c r="I4" s="30">
+        <v>0</v>
+      </c>
+      <c r="J4" s="13">
+        <v>5.5555555555555497E-3</v>
+      </c>
+      <c r="M4" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="68" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>17706</v>
+      </c>
+      <c r="C5" s="9">
+        <f>$D5 * 1000000</f>
+        <v>23410.43</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D8" si="0">$E5/($F5*1000000)</f>
+        <v>2.3410429999999999E-2</v>
+      </c>
+      <c r="E5">
+        <v>2341043</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5" s="30">
+        <v>3.3986427320490298E-3</v>
+      </c>
+      <c r="H5" s="30">
+        <v>1.04057209573847E-2</v>
+      </c>
+      <c r="I5" s="30">
+        <v>0</v>
+      </c>
+      <c r="J5" s="13">
+        <v>0</v>
+      </c>
+      <c r="M5" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="68" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6">
+        <v>22430</v>
+      </c>
+      <c r="C6" s="9">
+        <f>$D6 * 1000000</f>
+        <v>20809.46</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>2.0809459999999998E-2</v>
+      </c>
+      <c r="E6">
+        <v>2080946</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6" s="30">
+        <v>4.13852012314823E-3</v>
+      </c>
+      <c r="H6" s="30">
+        <v>1.01469087227782E-2</v>
+      </c>
+      <c r="I6" s="30">
+        <v>0</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0</v>
+      </c>
+      <c r="M6" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6" s="68" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5">
+        <v>270074</v>
+      </c>
+      <c r="C7" s="19">
+        <f t="shared" ref="C7:C8" si="1">$D7 * 1000000</f>
+        <v>5244.35</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>5.2443500000000001E-3</v>
+      </c>
+      <c r="E7" s="5">
+        <v>524435</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7" s="14">
+        <v>7.8309252772912993E-2</v>
+      </c>
+      <c r="H7" s="14">
+        <v>2.1555750145942701E-2</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0</v>
+      </c>
+      <c r="M7" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" s="68" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7">
+        <v>430172</v>
+      </c>
+      <c r="C8" s="10">
+        <f t="shared" si="1"/>
+        <v>36519.919999999998</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="0"/>
+        <v>3.6519919999999997E-2</v>
+      </c>
+      <c r="E8" s="16">
+        <v>3651992</v>
+      </c>
+      <c r="F8" s="16">
+        <v>100</v>
+      </c>
+      <c r="G8" s="20">
+        <v>2.5950877239721101E-2</v>
+      </c>
+      <c r="H8" s="20">
+        <v>8.0234507814984493E-2</v>
+      </c>
+      <c r="I8" s="20">
+        <v>2.1328125</v>
+      </c>
+      <c r="J8" s="21">
+        <v>6.6206102475532503E-3</v>
+      </c>
+      <c r="M8" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" s="69" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" s="69" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M10" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="73">
+        <v>58873</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="83"/>
+      <c r="I11" s="84"/>
+      <c r="M11" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="N11" s="78">
+        <v>10578</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2">
+        <v>786432</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4</v>
+      </c>
+      <c r="D12" s="8">
+        <f>$B12*$C12*$I$12 + $I$13</f>
+        <v>4587.3687695705348</v>
+      </c>
+      <c r="E12" s="27">
+        <f>$B12*$C12*$I$14 + $I$15</f>
+        <v>6695.5969406121067</v>
+      </c>
+      <c r="G12" s="80" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="53">
+        <v>1.4582852584745199E-3</v>
+      </c>
+      <c r="M12" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" s="15">
+        <f>$N11/$N10</f>
+        <v>0.1796748934146383</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>262144</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13" s="9">
+        <f>$B13*$C13*$I$12 + $I$13</f>
+        <v>1529.1229231901782</v>
+      </c>
+      <c r="E13" s="28">
+        <f>$B13*$C13*$I$14 + $I$15</f>
+        <v>2231.8656468707022</v>
+      </c>
+      <c r="G13" s="81"/>
+      <c r="H13" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="54">
+        <v>0</v>
+      </c>
+      <c r="M13" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="N13" s="79">
+        <f>$B$8 / $N$10</f>
+        <v>7.3067789988619571</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>262144</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14" s="9">
+        <f>$B14*$C14*$I$12 + $I$13</f>
+        <v>1529.1229231901782</v>
+      </c>
+      <c r="E14" s="28">
+        <f>$B14*$C14*$I$14 + $I$15</f>
+        <v>2231.8656468707022</v>
+      </c>
+      <c r="G14" s="80" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="53">
+        <v>2.1284729450900099E-3</v>
+      </c>
+      <c r="M14" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="N14" s="77">
+        <f>$C$8 / N11</f>
+        <v>3.4524409151068252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="5">
+        <v>262144</v>
+      </c>
+      <c r="C15" s="5">
+        <v>4</v>
+      </c>
+      <c r="D15" s="19">
+        <f>$B15*$C15*$I$12 + $I$13</f>
+        <v>1529.1229231901782</v>
+      </c>
+      <c r="E15" s="29">
+        <f>$B15*$C15*$I$14 + $I$15</f>
+        <v>2231.8656468707022</v>
+      </c>
+      <c r="G15" s="81"/>
+      <c r="H15" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="40"/>
+      <c r="B19" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="46">
+        <v>0</v>
+      </c>
+      <c r="C20" s="49">
+        <f>D13</f>
+        <v>1529.1229231901782</v>
+      </c>
+      <c r="D20" s="49">
+        <v>0</v>
+      </c>
+      <c r="E20" s="47">
+        <v>0</v>
+      </c>
+      <c r="F20" s="47">
+        <v>0</v>
+      </c>
+      <c r="G20" s="47">
+        <v>0</v>
+      </c>
+      <c r="H20" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="33">
+        <v>0</v>
+      </c>
+      <c r="C21" s="41">
+        <v>0</v>
+      </c>
+      <c r="D21" s="50">
+        <f>D13</f>
+        <v>1529.1229231901782</v>
+      </c>
+      <c r="E21" s="50">
+        <f>D13</f>
+        <v>1529.1229231901782</v>
+      </c>
+      <c r="F21" s="41">
+        <v>0</v>
+      </c>
+      <c r="G21" s="41">
+        <v>0</v>
+      </c>
+      <c r="H21" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="33">
+        <v>0</v>
+      </c>
+      <c r="C22" s="41">
+        <v>0</v>
+      </c>
+      <c r="D22" s="41">
+        <v>0</v>
+      </c>
+      <c r="E22" s="50">
+        <f>D15</f>
+        <v>1529.1229231901782</v>
+      </c>
+      <c r="F22" s="50">
+        <f>D13</f>
+        <v>1529.1229231901782</v>
+      </c>
+      <c r="G22" s="41">
+        <v>0</v>
+      </c>
+      <c r="H22" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="33">
+        <v>0</v>
+      </c>
+      <c r="C23" s="41">
+        <v>0</v>
+      </c>
+      <c r="D23" s="41">
+        <v>0</v>
+      </c>
+      <c r="E23" s="41">
+        <v>0</v>
+      </c>
+      <c r="F23" s="50">
+        <f>D14+D13</f>
+        <v>3058.2458463803564</v>
+      </c>
+      <c r="G23" s="41">
+        <v>0</v>
+      </c>
+      <c r="H23" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="33">
+        <v>0</v>
+      </c>
+      <c r="C24" s="50">
+        <v>0</v>
+      </c>
+      <c r="D24" s="41">
+        <v>0</v>
+      </c>
+      <c r="E24" s="41">
+        <v>0</v>
+      </c>
+      <c r="F24" s="41">
+        <v>0</v>
+      </c>
+      <c r="G24" s="41">
+        <v>0</v>
+      </c>
+      <c r="H24" s="51">
+        <f>D15</f>
+        <v>1529.1229231901782</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="52">
+        <v>0</v>
+      </c>
+      <c r="C25" s="50">
+        <f>D12</f>
+        <v>4587.3687695705348</v>
+      </c>
+      <c r="D25" s="50">
+        <f>D15</f>
+        <v>1529.1229231901782</v>
+      </c>
+      <c r="E25" s="50">
+        <v>0</v>
+      </c>
+      <c r="F25" s="50">
+        <v>0</v>
+      </c>
+      <c r="G25" s="41">
+        <v>0</v>
+      </c>
+      <c r="H25" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="34">
+        <v>0</v>
+      </c>
+      <c r="C26" s="43">
+        <v>0</v>
+      </c>
+      <c r="D26" s="43">
+        <v>0</v>
+      </c>
+      <c r="E26" s="43">
+        <v>0</v>
+      </c>
+      <c r="F26" s="43">
+        <v>0</v>
+      </c>
+      <c r="G26" s="43">
+        <v>0</v>
+      </c>
+      <c r="H26" s="44">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="G11:I11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>